--- a/data/balance_sheet/3digits/total/511_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/511_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>511-Passenger air transport</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>511-Passenger air transport</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,15 +915,20 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
-        <v>2713031.965290001</v>
+        <v>2713031.96529</v>
       </c>
       <c r="D5" s="32" t="n">
         <v>2633032.65744</v>
@@ -1490,32 +940,37 @@
         <v>4947092.929190001</v>
       </c>
       <c r="G5" s="32" t="n">
-        <v>6758519.947370001</v>
+        <v>6758519.947369999</v>
       </c>
       <c r="H5" s="33" t="n">
-        <v>7190598.68637</v>
+        <v>7597639.39555</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>9590081.58131</v>
+        <v>10225079.16618</v>
       </c>
       <c r="J5" s="33" t="n">
-        <v>14525803.3519</v>
+        <v>14525903.43336</v>
       </c>
       <c r="K5" s="32" t="n">
         <v>20097515.0513</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>29505252.93139</v>
+        <v>29505264.90807</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>36975374.94611999</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>36980966.91606</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>39563815.907</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
         <v>1418290.30531</v>
@@ -1533,29 +988,34 @@
         <v>2891717.39136</v>
       </c>
       <c r="H6" s="33" t="n">
-        <v>2929680.92081</v>
+        <v>2991466.76228</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>4359740.74458</v>
+        <v>4554192.051980001</v>
       </c>
       <c r="J6" s="33" t="n">
-        <v>7828571.97343</v>
+        <v>7828572.511630001</v>
       </c>
       <c r="K6" s="23" t="n">
         <v>11339635.28894</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>15371553.32084</v>
+        <v>15371555.25196</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>21743273.77893</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>21746597.8924</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>20536299.444</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
         <v>6792.841600000001</v>
@@ -1573,29 +1033,34 @@
         <v>7961.881820000001</v>
       </c>
       <c r="H7" s="21" t="n">
-        <v>8184.50563</v>
+        <v>8258.56122</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>22825.28823</v>
+        <v>22959.00751</v>
       </c>
       <c r="J7" s="21" t="n">
-        <v>44274.17441</v>
+        <v>44274.17442999999</v>
       </c>
       <c r="K7" s="22" t="n">
-        <v>57361.1239</v>
+        <v>57361.12390000001</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>63843.4275</v>
+        <v>63845.35862</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>35384.42304</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>35394.59737</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>47658.523</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>13719.8247</v>
@@ -1630,12 +1095,17 @@
       <c r="M8" s="22" t="n">
         <v>72131.609</v>
       </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+      <c r="N8" s="22" t="n">
+        <v>80451.86599999999</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
         <v>1352795.20248</v>
@@ -1653,13 +1123,13 @@
         <v>2699030.32606</v>
       </c>
       <c r="H9" s="21" t="n">
-        <v>2689204.65511</v>
+        <v>2750916.44099</v>
       </c>
       <c r="I9" s="22" t="n">
-        <v>4084777.586399999</v>
+        <v>4279092.09015</v>
       </c>
       <c r="J9" s="21" t="n">
-        <v>7632004.396189999</v>
+        <v>7632004.93437</v>
       </c>
       <c r="K9" s="22" t="n">
         <v>11088167.5592</v>
@@ -1668,14 +1138,19 @@
         <v>15131105.25154</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>21701744.77309</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>21705058.71223</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>20398433.432</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
         <v>9971.82459</v>
@@ -1699,7 +1174,7 @@
         <v>18520.18368</v>
       </c>
       <c r="J10" s="21" t="n">
-        <v>37783.01006</v>
+        <v>37783.01005999999</v>
       </c>
       <c r="K10" s="22" t="n">
         <v>47812.60954</v>
@@ -1710,12 +1185,17 @@
       <c r="M10" s="22" t="n">
         <v>286665.14612</v>
       </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+      <c r="N10" s="22" t="n">
+        <v>28117.587</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>54954.26112</v>
@@ -1736,7 +1216,7 @@
         <v>231508.2511</v>
       </c>
       <c r="I11" s="22" t="n">
-        <v>248165.96831</v>
+        <v>248169.05268</v>
       </c>
       <c r="J11" s="21" t="n">
         <v>148756.62138</v>
@@ -1750,12 +1230,17 @@
       <c r="M11" s="22" t="n">
         <v>220678.11992</v>
       </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+      <c r="N11" s="22" t="n">
+        <v>37873.21</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>3371.08238</v>
@@ -1773,10 +1258,10 @@
         <v>2184.71326</v>
       </c>
       <c r="H12" s="33" t="n">
-        <v>1067.84225</v>
+        <v>1192.6468</v>
       </c>
       <c r="I12" s="23" t="n">
-        <v>1376.39624</v>
+        <v>1503.51428</v>
       </c>
       <c r="J12" s="33" t="n">
         <v>162254.5616</v>
@@ -1790,12 +1275,17 @@
       <c r="M12" s="23" t="n">
         <v>840960.85516</v>
       </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+      <c r="N12" s="23" t="n">
+        <v>867239.524</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>3031.32673</v>
@@ -1813,10 +1303,10 @@
         <v>999.7022900000001</v>
       </c>
       <c r="H13" s="21" t="n">
-        <v>91.88728</v>
+        <v>216.69183</v>
       </c>
       <c r="I13" s="22" t="n">
-        <v>227.36328</v>
+        <v>352.16783</v>
       </c>
       <c r="J13" s="21" t="n">
         <v>311.46783</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>80460.21184999999</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>89329.386</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>33.65808</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>413133.09044</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>426943.955</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>156.60372</v>
@@ -1910,12 +1410,17 @@
       <c r="M15" s="22" t="n">
         <v>333010.95128</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>335144.415</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>149.49385</v>
@@ -1936,7 +1441,7 @@
         <v>368.12026</v>
       </c>
       <c r="I16" s="22" t="n">
-        <v>270.34184</v>
+        <v>272.65533</v>
       </c>
       <c r="J16" s="21" t="n">
         <v>23.51489</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>14356.60159</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>15821.768</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,15 +1500,20 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
-        <v>698649.5671699999</v>
+        <v>698649.5671700001</v>
       </c>
       <c r="D18" s="23" t="n">
         <v>800654.58693</v>
@@ -2013,29 +1528,34 @@
         <v>2414568.46542</v>
       </c>
       <c r="H18" s="33" t="n">
-        <v>1986810.49485</v>
+        <v>2247857.25159</v>
       </c>
       <c r="I18" s="23" t="n">
-        <v>2147782.53358</v>
+        <v>2427003.614</v>
       </c>
       <c r="J18" s="33" t="n">
-        <v>3265376.02105</v>
+        <v>3265412.02105</v>
       </c>
       <c r="K18" s="23" t="n">
         <v>4036682.15593</v>
       </c>
       <c r="L18" s="23" t="n">
-        <v>5543125.35996</v>
+        <v>5543125.359960001</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>6589383.2981</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>6590233.587700001</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>8125315.335</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
         <v>660680.5753500001</v>
@@ -2053,13 +1573,13 @@
         <v>2227856.67857</v>
       </c>
       <c r="H19" s="21" t="n">
-        <v>1831509.53291</v>
+        <v>2086353.44874</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>1909951.07313</v>
+        <v>2179967.83001</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>2789581.32239</v>
+        <v>2789617.32239</v>
       </c>
       <c r="K19" s="22" t="n">
         <v>3590217.05144</v>
@@ -2068,14 +1588,19 @@
         <v>4744773.32071</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>5364895.76696</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>5365746.056559999</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>6025585.322</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
         <v>8927.262490000001</v>
@@ -2110,12 +1635,17 @@
       <c r="M20" s="22" t="n">
         <v>29807.60657</v>
       </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+      <c r="N20" s="22" t="n">
+        <v>65945.66</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>0</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,18 +1725,23 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>13703.28938</v>
       </c>
       <c r="D23" s="22" t="n">
-        <v>24161.27787000001</v>
+        <v>24161.27786999999</v>
       </c>
       <c r="E23" s="22" t="n">
         <v>81940.24329</v>
@@ -2213,10 +1753,10 @@
         <v>104119.15953</v>
       </c>
       <c r="H23" s="21" t="n">
-        <v>55681.61168</v>
+        <v>61884.45256000001</v>
       </c>
       <c r="I23" s="22" t="n">
-        <v>60238.37579999999</v>
+        <v>69441.54803000001</v>
       </c>
       <c r="J23" s="21" t="n">
         <v>86521.06564</v>
@@ -2230,12 +1770,17 @@
       <c r="M23" s="22" t="n">
         <v>238372.33247</v>
       </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+      <c r="N23" s="22" t="n">
+        <v>265410.986</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>15207.85952</v>
@@ -2244,19 +1789,19 @@
         <v>12401.33387</v>
       </c>
       <c r="E24" s="22" t="n">
-        <v>8129.714209999999</v>
+        <v>8129.71421</v>
       </c>
       <c r="F24" s="21" t="n">
-        <v>72363.59623</v>
+        <v>72363.59623000001</v>
       </c>
       <c r="G24" s="22" t="n">
-        <v>47438.32669</v>
+        <v>47438.32668999999</v>
       </c>
       <c r="H24" s="21" t="n">
-        <v>66729.61269000001</v>
+        <v>66729.61268999999</v>
       </c>
       <c r="I24" s="22" t="n">
-        <v>124073.33126</v>
+        <v>124074.48257</v>
       </c>
       <c r="J24" s="21" t="n">
         <v>332522.69912</v>
@@ -2270,12 +1815,17 @@
       <c r="M24" s="22" t="n">
         <v>765545.9908700001</v>
       </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+      <c r="N24" s="22" t="n">
+        <v>1462992.419</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
         <v>91472.81978000001</v>
@@ -2293,10 +1843,10 @@
         <v>131567.52304</v>
       </c>
       <c r="H25" s="21" t="n">
-        <v>133036.06576</v>
+        <v>134571.64053</v>
       </c>
       <c r="I25" s="22" t="n">
-        <v>142929.68674</v>
+        <v>150443.27423</v>
       </c>
       <c r="J25" s="21" t="n">
         <v>207541.81676</v>
@@ -2310,33 +1860,38 @@
       <c r="M25" s="22" t="n">
         <v>386362.25192</v>
       </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+      <c r="N25" s="22" t="n">
+        <v>593646.182</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
-        <v>91342.23934999999</v>
+        <v>91342.23935</v>
       </c>
       <c r="D26" s="22" t="n">
         <v>101687.45062</v>
       </c>
       <c r="E26" s="22" t="n">
-        <v>96940.76014</v>
+        <v>96940.76013999998</v>
       </c>
       <c r="F26" s="21" t="n">
-        <v>96518.22342000002</v>
+        <v>96518.22341999999</v>
       </c>
       <c r="G26" s="22" t="n">
         <v>100492.52503</v>
       </c>
       <c r="H26" s="21" t="n">
-        <v>102079.98674</v>
+        <v>103615.56148</v>
       </c>
       <c r="I26" s="22" t="n">
-        <v>101021.3462</v>
+        <v>108534.93369</v>
       </c>
       <c r="J26" s="21" t="n">
         <v>153347.6002</v>
@@ -2350,12 +1905,17 @@
       <c r="M26" s="22" t="n">
         <v>195600.65069</v>
       </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+      <c r="N26" s="22" t="n">
+        <v>288265.234</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
         <v>211423.65078</v>
@@ -2373,13 +1933,13 @@
         <v>266485.36524</v>
       </c>
       <c r="H27" s="33" t="n">
-        <v>758987.15513</v>
+        <v>763229.3511899998</v>
       </c>
       <c r="I27" s="23" t="n">
-        <v>1067492.24087</v>
+        <v>1075234.98718</v>
       </c>
       <c r="J27" s="33" t="n">
-        <v>926332.54587</v>
+        <v>926392.0571800001</v>
       </c>
       <c r="K27" s="23" t="n">
         <v>1468977.26611</v>
@@ -2390,15 +1950,20 @@
       <c r="M27" s="23" t="n">
         <v>1630646.16738</v>
       </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+      <c r="N27" s="23" t="n">
+        <v>2257315.913</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
-        <v>39678.4959</v>
+        <v>39678.49590000001</v>
       </c>
       <c r="D28" s="22" t="n">
         <v>32824.17062</v>
@@ -2419,7 +1984,7 @@
         <v>139495.38075</v>
       </c>
       <c r="J28" s="21" t="n">
-        <v>145345.12547</v>
+        <v>145404.39678</v>
       </c>
       <c r="K28" s="22" t="n">
         <v>540388.4894300001</v>
@@ -2430,12 +1995,17 @@
       <c r="M28" s="22" t="n">
         <v>138321.23402</v>
       </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+      <c r="N28" s="22" t="n">
+        <v>128235.522</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>34.37207</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>175048.7</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>53396.226</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>19122.02933</v>
@@ -2493,7 +2068,7 @@
         <v>51922.77769</v>
       </c>
       <c r="H30" s="21" t="n">
-        <v>85044.6588</v>
+        <v>85044.65879999999</v>
       </c>
       <c r="I30" s="22" t="n">
         <v>154515.92853</v>
@@ -2502,26 +2077,31 @@
         <v>177084.95627</v>
       </c>
       <c r="K30" s="22" t="n">
-        <v>96875.58568999998</v>
+        <v>96875.58568999999</v>
       </c>
       <c r="L30" s="22" t="n">
-        <v>92751.02420999997</v>
+        <v>92751.02420999999</v>
       </c>
       <c r="M30" s="22" t="n">
         <v>96053.77278</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>415926.33</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>3508.41355</v>
       </c>
       <c r="D31" s="22" t="n">
-        <v>3028.196480000001</v>
+        <v>3028.19648</v>
       </c>
       <c r="E31" s="22" t="n">
         <v>4734.48488</v>
@@ -2533,29 +2113,34 @@
         <v>24694.43515</v>
       </c>
       <c r="H31" s="21" t="n">
-        <v>28360.50656</v>
+        <v>29955.61036</v>
       </c>
       <c r="I31" s="22" t="n">
-        <v>31467.10619</v>
+        <v>31900.18113</v>
       </c>
       <c r="J31" s="21" t="n">
-        <v>38571.8658</v>
+        <v>38571.86579999999</v>
       </c>
       <c r="K31" s="22" t="n">
         <v>58731.74607</v>
       </c>
       <c r="L31" s="22" t="n">
-        <v>96762.17782000001</v>
+        <v>96762.17782</v>
       </c>
       <c r="M31" s="22" t="n">
         <v>134350.30344</v>
       </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+      <c r="N31" s="22" t="n">
+        <v>197415.063</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
         <v>149080.33993</v>
@@ -2573,13 +2158,13 @@
         <v>157524.79074</v>
       </c>
       <c r="H32" s="21" t="n">
-        <v>614841.17967</v>
+        <v>617488.27193</v>
       </c>
       <c r="I32" s="22" t="n">
-        <v>737017.3422599999</v>
+        <v>744327.0136299999</v>
       </c>
       <c r="J32" s="21" t="n">
-        <v>563996.2218300001</v>
+        <v>563996.46183</v>
       </c>
       <c r="K32" s="22" t="n">
         <v>772188.18056</v>
@@ -2590,12 +2175,17 @@
       <c r="M32" s="22" t="n">
         <v>1086872.15714</v>
       </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+      <c r="N32" s="22" t="n">
+        <v>1461638.508</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>69.96249</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>15234.95853</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>15482.839</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>69.96249</v>
@@ -2710,12 +2310,17 @@
       <c r="M35" s="22" t="n">
         <v>15234.95853</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>14778.575</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
         <v>144657.2982</v>
@@ -2730,32 +2335,37 @@
         <v>292296.95527</v>
       </c>
       <c r="G36" s="23" t="n">
-        <v>375968.3491000001</v>
+        <v>375968.3491</v>
       </c>
       <c r="H36" s="33" t="n">
-        <v>354509.3825299999</v>
+        <v>388410.19992</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>521867.26911</v>
+        <v>575818.70467</v>
       </c>
       <c r="J36" s="33" t="n">
-        <v>701804.7333600002</v>
+        <v>701804.7333600001</v>
       </c>
       <c r="K36" s="23" t="n">
-        <v>910876.4337199999</v>
+        <v>910876.43372</v>
       </c>
       <c r="L36" s="23" t="n">
         <v>1711610.98365</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>1640776.22516</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>1640940.74372</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>1895335.021</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
         <v>11492.49845</v>
@@ -2770,13 +2380,13 @@
         <v>30608.89863</v>
       </c>
       <c r="G37" s="22" t="n">
-        <v>41165.38253000001</v>
+        <v>41165.38253</v>
       </c>
       <c r="H37" s="21" t="n">
         <v>50348.2078</v>
       </c>
       <c r="I37" s="22" t="n">
-        <v>84299.20163000001</v>
+        <v>84416.16864999999</v>
       </c>
       <c r="J37" s="21" t="n">
         <v>85245.45663</v>
@@ -2790,12 +2400,17 @@
       <c r="M37" s="22" t="n">
         <v>191693.07879</v>
       </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+      <c r="N37" s="22" t="n">
+        <v>228005.622</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>0</v>
@@ -2830,12 +2445,17 @@
       <c r="M38" s="22" t="n">
         <v>1762.75807</v>
       </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+      <c r="N38" s="22" t="n">
+        <v>1762.758</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>0</v>
@@ -2870,12 +2490,17 @@
       <c r="M39" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+      <c r="N39" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
         <v>1830.31326</v>
@@ -2887,7 +2512,7 @@
         <v>19512.77065</v>
       </c>
       <c r="F40" s="21" t="n">
-        <v>20794.93037000001</v>
+        <v>20794.93037</v>
       </c>
       <c r="G40" s="22" t="n">
         <v>5753.76026</v>
@@ -2896,13 +2521,13 @@
         <v>5357.69455</v>
       </c>
       <c r="I40" s="22" t="n">
-        <v>26026.84827</v>
+        <v>26027.16829</v>
       </c>
       <c r="J40" s="21" t="n">
-        <v>4422.62206</v>
+        <v>4422.622060000001</v>
       </c>
       <c r="K40" s="22" t="n">
-        <v>5791.902530000001</v>
+        <v>5791.902529999999</v>
       </c>
       <c r="L40" s="22" t="n">
         <v>14905.57033</v>
@@ -2910,12 +2535,17 @@
       <c r="M40" s="22" t="n">
         <v>17168.02245</v>
       </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+      <c r="N40" s="22" t="n">
+        <v>14257.987</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
         <v>82437.58375000001</v>
@@ -2933,10 +2563,10 @@
         <v>109617.36609</v>
       </c>
       <c r="H41" s="21" t="n">
-        <v>110424.35454</v>
+        <v>135514.96815</v>
       </c>
       <c r="I41" s="22" t="n">
-        <v>102884.81152</v>
+        <v>141257.58849</v>
       </c>
       <c r="J41" s="21" t="n">
         <v>165706.5932</v>
@@ -2950,12 +2580,17 @@
       <c r="M41" s="22" t="n">
         <v>447738.88953</v>
       </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+      <c r="N41" s="22" t="n">
+        <v>591179.665</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>1768.67349</v>
@@ -2990,15 +2625,20 @@
       <c r="M42" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
-        <v>50665.57623000001</v>
+        <v>50665.57623</v>
       </c>
       <c r="D43" s="22" t="n">
         <v>96283.55647999998</v>
@@ -3013,29 +2653,34 @@
         <v>219431.84022</v>
       </c>
       <c r="H43" s="21" t="n">
-        <v>188360.60601</v>
+        <v>197170.80979</v>
       </c>
       <c r="I43" s="22" t="n">
-        <v>308637.88806</v>
+        <v>324099.25961</v>
       </c>
       <c r="J43" s="21" t="n">
         <v>446411.54184</v>
       </c>
       <c r="K43" s="22" t="n">
-        <v>582574.44505</v>
+        <v>582574.4450500001</v>
       </c>
       <c r="L43" s="22" t="n">
         <v>1160437.54876</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>982413.47632</v>
-      </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+        <v>982577.9948799999</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>1060128.989</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>8585.96032</v>
@@ -3070,12 +2715,17 @@
       <c r="M44" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+      <c r="N44" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>8585.96032</v>
@@ -3110,12 +2760,17 @@
       <c r="M45" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+      <c r="N45" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -3190,12 +2850,17 @@
       <c r="M47" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>167720.36881</v>
@@ -3213,10 +2878,10 @@
         <v>698564.0757099999</v>
       </c>
       <c r="H48" s="45" t="n">
-        <v>967152.21062</v>
+        <v>989444.1365700001</v>
       </c>
       <c r="I48" s="46" t="n">
-        <v>1256678.34513</v>
+        <v>1332814.89356</v>
       </c>
       <c r="J48" s="45" t="n">
         <v>1411332.75488</v>
@@ -3228,14 +2893,19 @@
         <v>2608377.839</v>
       </c>
       <c r="M48" s="46" t="n">
-        <v>3351661.47716</v>
-      </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+        <v>3352877.8805</v>
+      </c>
+      <c r="N48" s="46" t="n">
+        <v>4507085.703</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
         <v>114807.38574</v>
@@ -3253,13 +2923,13 @@
         <v>415648.3145800001</v>
       </c>
       <c r="H49" s="21" t="n">
-        <v>429809.49065</v>
+        <v>445848.22378</v>
       </c>
       <c r="I49" s="22" t="n">
-        <v>649842.8188199999</v>
+        <v>701259.7725</v>
       </c>
       <c r="J49" s="21" t="n">
-        <v>684914.3764099999</v>
+        <v>684914.3764100001</v>
       </c>
       <c r="K49" s="22" t="n">
         <v>744948.6085500001</v>
@@ -3268,14 +2938,19 @@
         <v>1180450.86534</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>1308043.91971</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>1308071.81971</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>1612635.555</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
         <v>52912.98307</v>
@@ -3293,13 +2968,13 @@
         <v>282915.7611300001</v>
       </c>
       <c r="H50" s="21" t="n">
-        <v>537342.7199699999</v>
+        <v>543595.91279</v>
       </c>
       <c r="I50" s="22" t="n">
-        <v>606835.5263100001</v>
+        <v>631555.1210599999</v>
       </c>
       <c r="J50" s="21" t="n">
-        <v>726418.3784699999</v>
+        <v>726418.37847</v>
       </c>
       <c r="K50" s="22" t="n">
         <v>839668.03617</v>
@@ -3308,14 +2983,19 @@
         <v>1427926.97366</v>
       </c>
       <c r="M50" s="22" t="n">
-        <v>2043617.55745</v>
-      </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+        <v>2044806.06079</v>
+      </c>
+      <c r="N50" s="22" t="n">
+        <v>2894450.148</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>60333.73232</v>
@@ -3333,29 +3013,34 @@
         <v>109031.58728</v>
       </c>
       <c r="H51" s="45" t="n">
-        <v>183804.71986</v>
+        <v>207453.08688</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>231679.69979</v>
+        <v>255047.0485</v>
       </c>
       <c r="J51" s="45" t="n">
-        <v>230126.25871</v>
+        <v>230130.29066</v>
       </c>
       <c r="K51" s="46" t="n">
         <v>570998.34752</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>719797.3713699998</v>
+        <v>719807.4169299999</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>1178673.14423</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>1178709.7892</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>1375224.967</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
         <v>15319.41607</v>
@@ -3364,7 +3049,7 @@
         <v>18953.51791</v>
       </c>
       <c r="E52" s="22" t="n">
-        <v>44263.13457000001</v>
+        <v>44263.13457</v>
       </c>
       <c r="F52" s="21" t="n">
         <v>22005.75986</v>
@@ -3373,29 +3058,34 @@
         <v>61034.60439</v>
       </c>
       <c r="H52" s="21" t="n">
-        <v>123227.11556</v>
+        <v>136702.26426</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>141214.9885</v>
+        <v>143354.08897</v>
       </c>
       <c r="J52" s="21" t="n">
-        <v>148569.28032</v>
+        <v>148571.28101</v>
       </c>
       <c r="K52" s="22" t="n">
-        <v>394706.8154199999</v>
+        <v>394706.81542</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>536169.13423</v>
+        <v>536179.17979</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>805159.2586300002</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>805187.2845300001</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>1013809.533</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>839.79542</v>
@@ -3428,14 +3118,19 @@
         <v>7395.024230000001</v>
       </c>
       <c r="M53" s="22" t="n">
-        <v>5331.73991</v>
-      </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+        <v>5332.16027</v>
+      </c>
+      <c r="N53" s="22" t="n">
+        <v>5507.042</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>1003.91542</v>
@@ -3468,38 +3163,43 @@
         <v>650.79638</v>
       </c>
       <c r="M54" s="22" t="n">
-        <v>926.4721500000001</v>
-      </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+        <v>926.4721499999999</v>
+      </c>
+      <c r="N54" s="22" t="n">
+        <v>542.248</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
         <v>10648.52771</v>
       </c>
       <c r="D55" s="22" t="n">
-        <v>58006.21078000001</v>
+        <v>58006.21078</v>
       </c>
       <c r="E55" s="22" t="n">
         <v>14912.10031</v>
       </c>
       <c r="F55" s="21" t="n">
-        <v>4477.558750000001</v>
+        <v>4477.558749999999</v>
       </c>
       <c r="G55" s="22" t="n">
         <v>22750.98089</v>
       </c>
       <c r="H55" s="21" t="n">
-        <v>29472.59931</v>
+        <v>35656.34734</v>
       </c>
       <c r="I55" s="22" t="n">
-        <v>70390.36517</v>
+        <v>82672.66511999999</v>
       </c>
       <c r="J55" s="21" t="n">
-        <v>48236.64456999999</v>
+        <v>48236.64457</v>
       </c>
       <c r="K55" s="22" t="n">
         <v>85584.40121000001</v>
@@ -3508,20 +3208,25 @@
         <v>109759.459</v>
       </c>
       <c r="M55" s="22" t="n">
-        <v>121901.65976</v>
-      </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+        <v>121909.85847</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>92180.179</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>12925.01806</v>
       </c>
       <c r="D56" s="22" t="n">
-        <v>7040.92259</v>
+        <v>7040.922590000001</v>
       </c>
       <c r="E56" s="22" t="n">
         <v>12689.82392</v>
@@ -3533,29 +3238,34 @@
         <v>21672.51572</v>
       </c>
       <c r="H56" s="21" t="n">
-        <v>27577.79049</v>
+        <v>29140.58609</v>
       </c>
       <c r="I56" s="22" t="n">
-        <v>14672.58049</v>
+        <v>16889.4063</v>
       </c>
       <c r="J56" s="21" t="n">
-        <v>24269.62244</v>
+        <v>24271.6537</v>
       </c>
       <c r="K56" s="22" t="n">
-        <v>79713.41252</v>
+        <v>79713.41252000001</v>
       </c>
       <c r="L56" s="22" t="n">
-        <v>52236.95641999999</v>
+        <v>52236.95642</v>
       </c>
       <c r="M56" s="22" t="n">
         <v>108577.17047</v>
       </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+      <c r="N56" s="22" t="n">
+        <v>44204.496</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>5973.98203</v>
@@ -3573,13 +3283,13 @@
         <v>2654.1288</v>
       </c>
       <c r="H57" s="21" t="n">
-        <v>2770.28365</v>
+        <v>5196.95834</v>
       </c>
       <c r="I57" s="22" t="n">
-        <v>4679.71084</v>
+        <v>11408.83332</v>
       </c>
       <c r="J57" s="21" t="n">
-        <v>8449.063680000001</v>
+        <v>8449.063679999999</v>
       </c>
       <c r="K57" s="22" t="n">
         <v>10202.62629</v>
@@ -3590,12 +3300,17 @@
       <c r="M57" s="22" t="n">
         <v>133058.76438</v>
       </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+      <c r="N57" s="22" t="n">
+        <v>210015.341</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>400.71767</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>788.2955899999999</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>4.613</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>13222.35994</v>
@@ -3644,7 +3364,7 @@
         <v>10690.90409</v>
       </c>
       <c r="E59" s="22" t="n">
-        <v>2499.692729999999</v>
+        <v>2499.69273</v>
       </c>
       <c r="F59" s="21" t="n">
         <v>176.19367</v>
@@ -3670,11 +3390,16 @@
       <c r="M59" s="22" t="n">
         <v>2929.78334</v>
       </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+      <c r="N59" s="22" t="n">
+        <v>8961.514999999999</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,18 +3434,23 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
         <v>6458786.90918</v>
       </c>
       <c r="D61" s="36" t="n">
-        <v>8854346.048609998</v>
+        <v>8854346.04861</v>
       </c>
       <c r="E61" s="36" t="n">
         <v>11772633.59717</v>
@@ -3732,35 +3462,40 @@
         <v>18036711.46394</v>
       </c>
       <c r="H61" s="37" t="n">
-        <v>21371979.85576</v>
+        <v>22024681.66442</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>29863021.76292</v>
+        <v>31392174.86511</v>
       </c>
       <c r="J61" s="37" t="n">
-        <v>37781863.22688</v>
+        <v>37781863.64893</v>
       </c>
       <c r="K61" s="36" t="n">
-        <v>35472382.52763999</v>
+        <v>35472382.52764</v>
       </c>
       <c r="L61" s="36" t="n">
         <v>50772162.09054</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>69786686.678</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>69786710.23112001</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>95946422.752</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
-        <v>96635.11956000001</v>
+        <v>96635.11955999999</v>
       </c>
       <c r="D62" s="36" t="n">
-        <v>87216.59796000003</v>
+        <v>87216.59796</v>
       </c>
       <c r="E62" s="36" t="n">
         <v>121607.33473</v>
@@ -3775,10 +3510,10 @@
         <v>718440.1561799999</v>
       </c>
       <c r="I62" s="36" t="n">
-        <v>1568782.6416</v>
+        <v>1574518.17256</v>
       </c>
       <c r="J62" s="37" t="n">
-        <v>518279.8789400001</v>
+        <v>518279.87894</v>
       </c>
       <c r="K62" s="36" t="n">
         <v>357093.75226</v>
@@ -3787,14 +3522,19 @@
         <v>1023917.544</v>
       </c>
       <c r="M62" s="36" t="n">
-        <v>559473.8862199999</v>
-      </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+        <v>559473.88622</v>
+      </c>
+      <c r="N62" s="36" t="n">
+        <v>1001394.275</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>4393.69473</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>30.114</v>
@@ -3869,12 +3614,17 @@
       <c r="M64" s="22" t="n">
         <v>2917.0464</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>68634.397</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,18 +3704,23 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
-        <v>92211.31083</v>
+        <v>92211.31082999999</v>
       </c>
       <c r="D67" s="22" t="n">
-        <v>84532.68070000001</v>
+        <v>84532.6807</v>
       </c>
       <c r="E67" s="22" t="n">
         <v>102504.83714</v>
@@ -3969,13 +3729,13 @@
         <v>69327.20059000001</v>
       </c>
       <c r="G67" s="22" t="n">
-        <v>61389.49199999999</v>
+        <v>61389.492</v>
       </c>
       <c r="H67" s="21" t="n">
-        <v>544368.64169</v>
+        <v>544368.6416900001</v>
       </c>
       <c r="I67" s="22" t="n">
-        <v>1404299.53891</v>
+        <v>1410035.06987</v>
       </c>
       <c r="J67" s="21" t="n">
         <v>207941.8853</v>
@@ -3989,12 +3749,17 @@
       <c r="M67" s="22" t="n">
         <v>556556.8398199999</v>
       </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+      <c r="N67" s="22" t="n">
+        <v>932759.878</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,12 +3794,17 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>49400.22491</v>
@@ -4046,16 +3816,16 @@
         <v>46074.10422</v>
       </c>
       <c r="F69" s="37" t="n">
-        <v>61941.0441</v>
+        <v>61941.04409999999</v>
       </c>
       <c r="G69" s="36" t="n">
         <v>358588.86537</v>
       </c>
       <c r="H69" s="37" t="n">
-        <v>522067.9685900001</v>
+        <v>550274.9685900001</v>
       </c>
       <c r="I69" s="36" t="n">
-        <v>640943.11843</v>
+        <v>672719.11843</v>
       </c>
       <c r="J69" s="37" t="n">
         <v>885414.4242</v>
@@ -4069,12 +3839,17 @@
       <c r="M69" s="36" t="n">
         <v>1459764.2573</v>
       </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+      <c r="N69" s="36" t="n">
+        <v>1865839.754</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>2852.61515</v>
@@ -4109,12 +3884,17 @@
       <c r="M70" s="22" t="n">
         <v>418475.90583</v>
       </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+      <c r="N70" s="22" t="n">
+        <v>418385.302</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>0</v>
@@ -4132,10 +3912,10 @@
         <v>29365</v>
       </c>
       <c r="H71" s="21" t="n">
-        <v>2994.32443</v>
+        <v>31201.32443</v>
       </c>
       <c r="I71" s="22" t="n">
-        <v>374.12</v>
+        <v>32150.12</v>
       </c>
       <c r="J71" s="21" t="n">
         <v>141247.05716</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>315903.5</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>427875.25</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>0</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>927.9312199999999</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>2644.419</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>6463.45315</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>497442.70733</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>720291.951</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>40084.15661</v>
@@ -4255,7 +4050,7 @@
         <v>21523.40815</v>
       </c>
       <c r="I74" s="22" t="n">
-        <v>54900.22431</v>
+        <v>54900.22431000001</v>
       </c>
       <c r="J74" s="21" t="n">
         <v>68838.33164</v>
@@ -4269,12 +4064,17 @@
       <c r="M74" s="22" t="n">
         <v>227014.21292</v>
       </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+      <c r="N74" s="22" t="n">
+        <v>296642.832</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,33 +4154,38 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
-        <v>454723.5657699999</v>
+        <v>454723.56577</v>
       </c>
       <c r="D77" s="23" t="n">
-        <v>620795.1889800001</v>
+        <v>620795.18898</v>
       </c>
       <c r="E77" s="23" t="n">
-        <v>769330.9026800001</v>
+        <v>769330.9026799999</v>
       </c>
       <c r="F77" s="33" t="n">
-        <v>898992.3231200001</v>
+        <v>898992.32312</v>
       </c>
       <c r="G77" s="23" t="n">
         <v>1079102.30466</v>
       </c>
       <c r="H77" s="33" t="n">
-        <v>1328152.69207</v>
+        <v>1328180.28111</v>
       </c>
       <c r="I77" s="23" t="n">
-        <v>1406232.29622</v>
+        <v>1406259.88526</v>
       </c>
       <c r="J77" s="33" t="n">
         <v>1493385.26307</v>
@@ -4389,12 +4199,17 @@
       <c r="M77" s="23" t="n">
         <v>1394203.1093</v>
       </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+      <c r="N77" s="23" t="n">
+        <v>1464125.651</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>17851.47872</v>
@@ -4409,7 +4224,7 @@
         <v>1590.04902</v>
       </c>
       <c r="G78" s="22" t="n">
-        <v>3758.91664</v>
+        <v>3758.916639999999</v>
       </c>
       <c r="H78" s="21" t="n">
         <v>3731.99164</v>
@@ -4427,14 +4242,19 @@
         <v>27.68946</v>
       </c>
       <c r="M78" s="22" t="n">
-        <v>6692.64913</v>
-      </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+        <v>6692.649130000001</v>
+      </c>
+      <c r="N78" s="22" t="n">
+        <v>6887.404</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,15 +4289,20 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
-        <v>45353.05487</v>
+        <v>45353.05487000001</v>
       </c>
       <c r="D80" s="22" t="n">
         <v>94575.87556</v>
@@ -4492,10 +4317,10 @@
         <v>141135.06705</v>
       </c>
       <c r="H80" s="21" t="n">
-        <v>185825.90052</v>
+        <v>185853.48956</v>
       </c>
       <c r="I80" s="22" t="n">
-        <v>244623.99081</v>
+        <v>244651.57985</v>
       </c>
       <c r="J80" s="21" t="n">
         <v>311581.97161</v>
@@ -4509,12 +4334,17 @@
       <c r="M80" s="22" t="n">
         <v>294093.51843</v>
       </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+      <c r="N80" s="22" t="n">
+        <v>313762.697</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>500</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>109.001</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>258.001</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>388479.16041</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>1094651.41774</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>1142209.026</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>13.20804</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>2650</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>3553.07981</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>1524.525</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>1524.525</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,12 +4649,17 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
         <v>3198357.60314</v>
@@ -4812,29 +4677,34 @@
         <v>5735794.32891</v>
       </c>
       <c r="H88" s="33" t="n">
-        <v>6174780.91917</v>
+        <v>6614039.647489999</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>7079885.3661</v>
+        <v>7804856.2333</v>
       </c>
       <c r="J88" s="33" t="n">
         <v>7308851.645829999</v>
       </c>
       <c r="K88" s="23" t="n">
-        <v>6902416.91046</v>
+        <v>6902416.910459999</v>
       </c>
       <c r="L88" s="23" t="n">
         <v>17491785.51884</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>24224387.86969</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>24224402.74629</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>26748698.943</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>1905.34974</v>
@@ -4869,18 +4739,23 @@
       <c r="M89" s="22" t="n">
         <v>14379.22062</v>
       </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+      <c r="N89" s="22" t="n">
+        <v>16264.98</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
-        <v>67.65993</v>
+        <v>67.65992999999999</v>
       </c>
       <c r="D90" s="22" t="n">
-        <v>67.65993</v>
+        <v>67.65992999999999</v>
       </c>
       <c r="E90" s="22" t="n">
         <v>67.65992999999999</v>
@@ -4898,7 +4773,7 @@
         <v>707.7553</v>
       </c>
       <c r="J90" s="21" t="n">
-        <v>7614.201230000001</v>
+        <v>7614.20123</v>
       </c>
       <c r="K90" s="22" t="n">
         <v>17201.18027</v>
@@ -4909,12 +4784,17 @@
       <c r="M90" s="22" t="n">
         <v>1773.00211</v>
       </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+      <c r="N90" s="22" t="n">
+        <v>124.884</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
         <v>170252.99145</v>
@@ -4932,10 +4812,10 @@
         <v>214662.76293</v>
       </c>
       <c r="H91" s="21" t="n">
-        <v>235951.55078</v>
+        <v>273619.5662</v>
       </c>
       <c r="I91" s="22" t="n">
-        <v>249618.98897</v>
+        <v>287671.41489</v>
       </c>
       <c r="J91" s="21" t="n">
         <v>326790.95848</v>
@@ -4949,21 +4829,26 @@
       <c r="M91" s="22" t="n">
         <v>422236.5487100001</v>
       </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+      <c r="N91" s="22" t="n">
+        <v>451221.743</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>497237.1201</v>
       </c>
       <c r="D92" s="22" t="n">
-        <v>551382.2000999999</v>
+        <v>551382.2001</v>
       </c>
       <c r="E92" s="22" t="n">
-        <v>677270.9191800001</v>
+        <v>677270.91918</v>
       </c>
       <c r="F92" s="21" t="n">
         <v>1310143.77141</v>
@@ -4972,10 +4857,10 @@
         <v>1455733.6154</v>
       </c>
       <c r="H92" s="21" t="n">
-        <v>1410021.35502</v>
+        <v>1431914.66671</v>
       </c>
       <c r="I92" s="22" t="n">
-        <v>1466890.4989</v>
+        <v>1489239.59509</v>
       </c>
       <c r="J92" s="21" t="n">
         <v>1505117.05306</v>
@@ -4989,12 +4874,17 @@
       <c r="M92" s="22" t="n">
         <v>5718930.516890001</v>
       </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+      <c r="N92" s="22" t="n">
+        <v>7452698.485</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
         <v>1683032.19647</v>
@@ -5012,10 +4902,10 @@
         <v>1550579.84621</v>
       </c>
       <c r="H93" s="21" t="n">
-        <v>1857777.66657</v>
+        <v>1912967.66623</v>
       </c>
       <c r="I93" s="22" t="n">
-        <v>1606335.52698</v>
+        <v>1732829.42661</v>
       </c>
       <c r="J93" s="21" t="n">
         <v>2155228.54465</v>
@@ -5029,12 +4919,17 @@
       <c r="M93" s="22" t="n">
         <v>3509643.51911</v>
       </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+      <c r="N93" s="22" t="n">
+        <v>3501011.887</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
         <v>185926.35574</v>
@@ -5052,10 +4947,10 @@
         <v>341474.80293</v>
       </c>
       <c r="H94" s="21" t="n">
-        <v>333415.11127</v>
+        <v>353017.62015</v>
       </c>
       <c r="I94" s="22" t="n">
-        <v>461291.86254</v>
+        <v>486334.3730500001</v>
       </c>
       <c r="J94" s="21" t="n">
         <v>731331.31021</v>
@@ -5067,14 +4962,19 @@
         <v>1196957.4345</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>1544184.16612</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>1544202.21549</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>1895781.286</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>16964.55409</v>
@@ -5109,12 +5009,17 @@
       <c r="M95" s="22" t="n">
         <v>15900.18651</v>
       </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+      <c r="N95" s="22" t="n">
+        <v>15071.518</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
         <v>1366603.63787</v>
@@ -5132,10 +5037,10 @@
         <v>1857609.14838</v>
       </c>
       <c r="H96" s="21" t="n">
-        <v>1971721.24934</v>
+        <v>1990123.47911</v>
       </c>
       <c r="I96" s="22" t="n">
-        <v>1901135.87916</v>
+        <v>1943876.69602</v>
       </c>
       <c r="J96" s="21" t="n">
         <v>2027461.89893</v>
@@ -5147,17 +5052,22 @@
         <v>4248601.49317</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>4854406.246459999</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>4854409.41923</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>6565863.351</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
-        <v>89192.73530999999</v>
+        <v>89192.73531</v>
       </c>
       <c r="D97" s="22" t="n">
         <v>14891.95567</v>
@@ -5169,13 +5079,13 @@
         <v>278686.04904</v>
       </c>
       <c r="G97" s="22" t="n">
-        <v>623189.7202800001</v>
+        <v>623189.72028</v>
       </c>
       <c r="H97" s="21" t="n">
-        <v>318910.17269</v>
+        <v>319694.01613</v>
       </c>
       <c r="I97" s="22" t="n">
-        <v>381206.24856</v>
+        <v>388706.39383</v>
       </c>
       <c r="J97" s="21" t="n">
         <v>732239.99012</v>
@@ -5184,17 +5094,22 @@
         <v>1049288.41033</v>
       </c>
       <c r="L97" s="22" t="n">
-        <v>2840802.633</v>
+        <v>2840802.632999999</v>
       </c>
       <c r="M97" s="22" t="n">
         <v>3572578.64324</v>
       </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+      <c r="N97" s="22" t="n">
+        <v>4281227.83</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>1920382.27818</v>
@@ -5212,10 +5127,10 @@
         <v>3385699.42934</v>
       </c>
       <c r="H98" s="21" t="n">
-        <v>3970678.29588</v>
+        <v>4293201.57488</v>
       </c>
       <c r="I98" s="22" t="n">
-        <v>4789027.653390001</v>
+        <v>5337301.259930001</v>
       </c>
       <c r="J98" s="21" t="n">
         <v>3852536.02102</v>
@@ -5229,12 +5144,17 @@
       <c r="M98" s="22" t="n">
         <v>14279168.31284</v>
       </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+      <c r="N98" s="22" t="n">
+        <v>15701159.681</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
         <v>2528377.8725</v>
@@ -5243,7 +5163,7 @@
         <v>4329759.52187</v>
       </c>
       <c r="E99" s="23" t="n">
-        <v>7477826.62853</v>
+        <v>7477826.628529999</v>
       </c>
       <c r="F99" s="33" t="n">
         <v>9027240.107480001</v>
@@ -5252,10 +5172,10 @@
         <v>10289890.20868</v>
       </c>
       <c r="H99" s="33" t="n">
-        <v>12076967.36843</v>
+        <v>12262040.74086</v>
       </c>
       <c r="I99" s="23" t="n">
-        <v>18197418.35415</v>
+        <v>18963883.03187</v>
       </c>
       <c r="J99" s="33" t="n">
         <v>26280979.63488</v>
@@ -5267,17 +5187,22 @@
         <v>27090307.10362</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>38793017.48634</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>38793020.95095</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>61248878.41</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
-        <v>737256.96059</v>
+        <v>737256.9605899999</v>
       </c>
       <c r="D100" s="22" t="n">
         <v>1233274.45638</v>
@@ -5292,13 +5217,13 @@
         <v>3433149.01086</v>
       </c>
       <c r="H100" s="21" t="n">
-        <v>3614841.48238</v>
+        <v>3623859.19071</v>
       </c>
       <c r="I100" s="22" t="n">
-        <v>4536085.097370001</v>
+        <v>4722231.126829999</v>
       </c>
       <c r="J100" s="21" t="n">
-        <v>6609618.019839999</v>
+        <v>6609618.019840001</v>
       </c>
       <c r="K100" s="22" t="n">
         <v>7158969.77899</v>
@@ -5309,12 +5234,17 @@
       <c r="M100" s="22" t="n">
         <v>11267165.24247</v>
       </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+      <c r="N100" s="22" t="n">
+        <v>16997817.122</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>0</v>
@@ -5349,12 +5279,17 @@
       <c r="M101" s="22" t="n">
         <v>453.9972</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>453.997</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
         <v>6340.98072</v>
@@ -5363,19 +5298,19 @@
         <v>5860.93367</v>
       </c>
       <c r="E102" s="22" t="n">
-        <v>5867.872739999999</v>
+        <v>5867.87274</v>
       </c>
       <c r="F102" s="21" t="n">
         <v>11106.50253</v>
       </c>
       <c r="G102" s="22" t="n">
-        <v>9144.318280000001</v>
+        <v>9144.31828</v>
       </c>
       <c r="H102" s="21" t="n">
-        <v>9205.632030000001</v>
+        <v>9205.632029999999</v>
       </c>
       <c r="I102" s="22" t="n">
-        <v>9405.975569999999</v>
+        <v>9405.975570000001</v>
       </c>
       <c r="J102" s="21" t="n">
         <v>2081.81095</v>
@@ -5387,14 +5322,19 @@
         <v>1775.69871</v>
       </c>
       <c r="M102" s="22" t="n">
-        <v>1783.16855</v>
-      </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+        <v>1786.63544</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>1819.455</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>23.87554</v>
@@ -5429,12 +5369,17 @@
       <c r="M103" s="22" t="n">
         <v>80232.829</v>
       </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+      <c r="N103" s="22" t="n">
+        <v>96852.29300000001</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
         <v>83325.81439</v>
@@ -5452,38 +5397,43 @@
         <v>285935.66588</v>
       </c>
       <c r="H104" s="21" t="n">
-        <v>439130.5301900001</v>
+        <v>448961.26394</v>
       </c>
       <c r="I104" s="22" t="n">
-        <v>537945.1814300001</v>
+        <v>567767.59208</v>
       </c>
       <c r="J104" s="21" t="n">
-        <v>652768.0704600002</v>
+        <v>652768.07046</v>
       </c>
       <c r="K104" s="22" t="n">
-        <v>660181.72782</v>
+        <v>660181.7278199999</v>
       </c>
       <c r="L104" s="22" t="n">
-        <v>668619.32996</v>
+        <v>668619.3299600001</v>
       </c>
       <c r="M104" s="22" t="n">
-        <v>1537669.49586</v>
-      </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+        <v>1537670.18696</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>2756699.922</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
         <v>3295330.72898</v>
       </c>
       <c r="D105" s="22" t="n">
-        <v>5605654.22543</v>
+        <v>5605654.225430001</v>
       </c>
       <c r="E105" s="22" t="n">
-        <v>9752160.866090002</v>
+        <v>9752160.86609</v>
       </c>
       <c r="F105" s="21" t="n">
         <v>11899025.30393</v>
@@ -5492,10 +5442,10 @@
         <v>14291832.48357</v>
       </c>
       <c r="H105" s="21" t="n">
-        <v>17427483.72798</v>
+        <v>17828636.33709</v>
       </c>
       <c r="I105" s="22" t="n">
-        <v>25437598.34364</v>
+        <v>26394385.03823</v>
       </c>
       <c r="J105" s="21" t="n">
         <v>35948611.10774</v>
@@ -5507,35 +5457,40 @@
         <v>41043429.09002</v>
       </c>
       <c r="M105" s="22" t="n">
-        <v>51690628.51019999</v>
-      </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+        <v>51690628.5102</v>
+      </c>
+      <c r="N105" s="22" t="n">
+        <v>69129091.94400001</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
         <v>1593900.48772</v>
       </c>
       <c r="D106" s="22" t="n">
-        <v>2615933.358750001</v>
+        <v>2615933.35875</v>
       </c>
       <c r="E106" s="22" t="n">
         <v>4413133.882189999</v>
       </c>
       <c r="F106" s="21" t="n">
-        <v>5786645.102200001</v>
+        <v>5786645.1022</v>
       </c>
       <c r="G106" s="22" t="n">
         <v>7730171.26991</v>
       </c>
       <c r="H106" s="21" t="n">
-        <v>9413694.004149999</v>
+        <v>9648621.682909999</v>
       </c>
       <c r="I106" s="22" t="n">
-        <v>12323618.52119</v>
+        <v>12729908.97817</v>
       </c>
       <c r="J106" s="21" t="n">
         <v>16932099.37421</v>
@@ -5547,14 +5502,19 @@
         <v>24272390.02606</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>25784915.75694</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>25784916.45032</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>27734152.933</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>0</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>296.61</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>22501.16887</v>
@@ -5629,12 +5594,17 @@
       <c r="M108" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+      <c r="N108" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>0</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>41213.91628</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>18712.74741</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>0</v>
@@ -5829,18 +5819,23 @@
       <c r="M113" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
         <v>108016.07316</v>
       </c>
       <c r="D114" s="23" t="n">
-        <v>93747.71288000001</v>
+        <v>93747.71287999999</v>
       </c>
       <c r="E114" s="23" t="n">
         <v>168400.93982</v>
@@ -5852,13 +5847,13 @@
         <v>435431.66146</v>
       </c>
       <c r="H114" s="33" t="n">
-        <v>539344.18483</v>
+        <v>539479.3037</v>
       </c>
       <c r="I114" s="23" t="n">
-        <v>969606.5332000001</v>
+        <v>969784.9704699999</v>
       </c>
       <c r="J114" s="33" t="n">
-        <v>1289795.34613</v>
+        <v>1289795.76818</v>
       </c>
       <c r="K114" s="23" t="n">
         <v>1529100.41363</v>
@@ -5867,20 +5862,25 @@
         <v>2527083.77455</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>3334335.68462</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>3334340.34653</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>3568604.307</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
         <v>82798.57706</v>
       </c>
       <c r="D115" s="22" t="n">
-        <v>91849.17863000001</v>
+        <v>91849.17862999999</v>
       </c>
       <c r="E115" s="22" t="n">
         <v>149881.22814</v>
@@ -5892,13 +5892,13 @@
         <v>417482.12975</v>
       </c>
       <c r="H115" s="21" t="n">
-        <v>538941.6958900001</v>
+        <v>539076.81476</v>
       </c>
       <c r="I115" s="22" t="n">
-        <v>967521.4181799999</v>
+        <v>967699.8554499999</v>
       </c>
       <c r="J115" s="21" t="n">
-        <v>1285190.84627</v>
+        <v>1285191.26832</v>
       </c>
       <c r="K115" s="22" t="n">
         <v>1508060.60588</v>
@@ -5907,14 +5907,19 @@
         <v>2472562.92262</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>3252762.93462</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>3252767.59653</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>3513287.647</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>25217.4961</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>81572.75</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>55316.66</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>775.2812700000001</v>
@@ -5987,14 +5997,19 @@
         <v>43491.44682</v>
       </c>
       <c r="M117" s="23" t="n">
-        <v>21504.38453</v>
-      </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+        <v>21504.93453</v>
+      </c>
+      <c r="N117" s="23" t="n">
+        <v>48881.412</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>305.65416</v>
@@ -6027,14 +6042,19 @@
         <v>0</v>
       </c>
       <c r="M118" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+        <v>0.55</v>
+      </c>
+      <c r="N118" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>105.25444</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,21 +6134,26 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
-        <v>0</v>
+        <v>363.11093</v>
       </c>
       <c r="D121" s="22" t="n">
-        <v>0</v>
+        <v>48.96811</v>
       </c>
       <c r="E121" s="22" t="n">
-        <v>0</v>
+        <v>143.92731</v>
       </c>
       <c r="F121" s="21" t="n">
         <v>14650.247</v>
@@ -6149,12 +6179,17 @@
       <c r="M121" s="22" t="n">
         <v>1157.773</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>931.54</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>1.26174</v>
@@ -6189,21 +6224,26 @@
       <c r="M122" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+      <c r="N122" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
-        <v>363.11093</v>
+        <v>0</v>
       </c>
       <c r="D123" s="22" t="n">
-        <v>48.96811</v>
+        <v>0</v>
       </c>
       <c r="E123" s="22" t="n">
-        <v>143.92731</v>
+        <v>0</v>
       </c>
       <c r="F123" s="21" t="n">
         <v>0</v>
@@ -6229,12 +6269,17 @@
       <c r="M123" s="22" t="n">
         <v>59.87667</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>3993.271</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6267,14 +6312,19 @@
         <v>0</v>
       </c>
       <c r="M124" s="22" t="n">
-        <v>950.423</v>
-      </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+        <v>0</v>
+      </c>
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>0</v>
@@ -6307,14 +6357,19 @@
         <v>451.91</v>
       </c>
       <c r="M125" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+        <v>950.423</v>
+      </c>
+      <c r="N125" s="22" t="n">
+        <v>770.258</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6344,20 +6399,25 @@
         <v>4973.349399999999</v>
       </c>
       <c r="L126" s="22" t="n">
-        <v>43355.16315000001</v>
+        <v>43355.16315</v>
       </c>
       <c r="M126" s="22" t="n">
         <v>21237.15786</v>
       </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="N126" s="22" t="n">
+        <v>44726.859</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
-        <v>9171818.874469999</v>
+        <v>9171818.874470001</v>
       </c>
       <c r="D127" s="23" t="n">
         <v>11487378.70605</v>
@@ -6372,26 +6432,29 @@
         <v>24795231.41131</v>
       </c>
       <c r="H127" s="33" t="n">
-        <v>28562578.54213</v>
+        <v>29622321.05997</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>39453103.34423</v>
+        <v>41617254.03129</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>52307666.57878</v>
+        <v>52307767.08228999</v>
       </c>
       <c r="K127" s="23" t="n">
         <v>55569897.57894</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>80277415.02192999</v>
+        <v>80277426.99861</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>106762061.62412</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>106767677.14718</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>135510238.659</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>511-Passenger air transport</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,12 +6553,17 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
         <v>3038468.42979</v>
@@ -6498,41 +6575,46 @@
         <v>5313269.187609999</v>
       </c>
       <c r="F132" s="33" t="n">
-        <v>6148835.448349998</v>
+        <v>6148835.448349999</v>
       </c>
       <c r="G132" s="23" t="n">
         <v>8992275.013959998</v>
       </c>
       <c r="H132" s="33" t="n">
-        <v>9648492.334100001</v>
+        <v>10109881.609</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>13209265.16562</v>
+        <v>13795332.65028</v>
       </c>
       <c r="J132" s="33" t="n">
-        <v>21358391.96236</v>
+        <v>21358412.38119</v>
       </c>
       <c r="K132" s="23" t="n">
         <v>24737882.48284</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>38646198.52090999</v>
+        <v>38646282.70449001</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>49761753.34676</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>49766216.76509999</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>67435514.551</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>539000.39173</v>
       </c>
       <c r="D133" s="23" t="n">
-        <v>850451.27892</v>
+        <v>850451.2789200001</v>
       </c>
       <c r="E133" s="23" t="n">
         <v>1410677.01248</v>
@@ -6544,10 +6626,10 @@
         <v>1840573.76464</v>
       </c>
       <c r="H133" s="33" t="n">
-        <v>1907821.88352</v>
+        <v>1911663.9152</v>
       </c>
       <c r="I133" s="23" t="n">
-        <v>3820067.54541</v>
+        <v>3837796.90319</v>
       </c>
       <c r="J133" s="33" t="n">
         <v>9844549.214859998</v>
@@ -6559,35 +6641,40 @@
         <v>15346987.27696</v>
       </c>
       <c r="M133" s="23" t="n">
-        <v>20449745.58867</v>
-      </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+        <v>20449753.61199</v>
+      </c>
+      <c r="N133" s="23" t="n">
+        <v>38942269.424</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>173724.98703</v>
       </c>
       <c r="D134" s="22" t="n">
-        <v>311254.8172699999</v>
+        <v>311254.81727</v>
       </c>
       <c r="E134" s="22" t="n">
         <v>359379.40552</v>
       </c>
       <c r="F134" s="21" t="n">
-        <v>278321.8371899999</v>
+        <v>278321.83719</v>
       </c>
       <c r="G134" s="22" t="n">
         <v>211894.90224</v>
       </c>
       <c r="H134" s="21" t="n">
-        <v>135773.85836</v>
+        <v>139615.89004</v>
       </c>
       <c r="I134" s="22" t="n">
-        <v>992436.36896</v>
+        <v>997291.24049</v>
       </c>
       <c r="J134" s="21" t="n">
         <v>5073798.16625</v>
@@ -6599,14 +6686,19 @@
         <v>7101252.86919</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>9113766.669200001</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>9113774.69252</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>17018021.733</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>410713.68167</v>
@@ -6624,16 +6716,16 @@
         <v>1930553.66751</v>
       </c>
       <c r="H135" s="21" t="n">
-        <v>2097412.24716</v>
+        <v>2102147.73414</v>
       </c>
       <c r="I135" s="22" t="n">
-        <v>3185308.44387</v>
+        <v>3198694.16141</v>
       </c>
       <c r="J135" s="21" t="n">
-        <v>5315097.539049999</v>
+        <v>5315097.539050001</v>
       </c>
       <c r="K135" s="22" t="n">
-        <v>5498265.13357</v>
+        <v>5498265.133570001</v>
       </c>
       <c r="L135" s="22" t="n">
         <v>7829364.58696</v>
@@ -6641,15 +6733,20 @@
       <c r="M135" s="22" t="n">
         <v>9562666.99409</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>14786184.364</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
-        <v>88031.55827999998</v>
+        <v>88031.55828</v>
       </c>
       <c r="D136" s="22" t="n">
         <v>116634.24732</v>
@@ -6664,10 +6761,10 @@
         <v>412538.72304</v>
       </c>
       <c r="H136" s="21" t="n">
-        <v>358060.50037</v>
+        <v>362795.98735</v>
       </c>
       <c r="I136" s="22" t="n">
-        <v>498513.10519</v>
+        <v>499039.74732</v>
       </c>
       <c r="J136" s="21" t="n">
         <v>777925.51512</v>
@@ -6681,15 +6778,20 @@
       <c r="M136" s="22" t="n">
         <v>1257921.36177</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>1488856</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
-        <v>42389.41720999999</v>
+        <v>42389.41721</v>
       </c>
       <c r="D137" s="22" t="n">
         <v>34803.36151</v>
@@ -6721,12 +6823,17 @@
       <c r="M137" s="22" t="n">
         <v>2993443.21473</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>8588531.477</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>203.8641</v>
@@ -6895,7 +7022,7 @@
         <v>13155.36518</v>
       </c>
       <c r="E142" s="22" t="n">
-        <v>36117.25926</v>
+        <v>36117.25926000001</v>
       </c>
       <c r="F142" s="21" t="n">
         <v>30552.31933</v>
@@ -6907,7 +7034,7 @@
         <v>1097.3075</v>
       </c>
       <c r="I142" s="22" t="n">
-        <v>1122.61749</v>
+        <v>1138.02833</v>
       </c>
       <c r="J142" s="21" t="n">
         <v>732.71542</v>
@@ -6921,15 +7048,20 @@
       <c r="M142" s="22" t="n">
         <v>37790.07242</v>
       </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+      <c r="N142" s="22" t="n">
+        <v>38387.85</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
-        <v>949006.4465600001</v>
+        <v>949006.44656</v>
       </c>
       <c r="D143" s="46" t="n">
         <v>1144730.0756</v>
@@ -6944,32 +7076,37 @@
         <v>2359590.1462</v>
       </c>
       <c r="H143" s="45" t="n">
-        <v>2262073.77302</v>
+        <v>2440695.03085</v>
       </c>
       <c r="I143" s="46" t="n">
-        <v>2884553.368350001</v>
+        <v>3190595.62153</v>
       </c>
       <c r="J143" s="45" t="n">
-        <v>4205439.263769999</v>
+        <v>4205439.26377</v>
       </c>
       <c r="K143" s="46" t="n">
-        <v>5622321.725059999</v>
+        <v>5622321.72506</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>8099490.28062</v>
+        <v>8099502.315690001</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>9789702.29874</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>9791736.438309999</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>9714038.177999999</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
-        <v>890988.4444400001</v>
+        <v>890988.44444</v>
       </c>
       <c r="D144" s="25" t="n">
         <v>1054394.36729</v>
@@ -6984,10 +7121,10 @@
         <v>2171493.72455</v>
       </c>
       <c r="H144" s="24" t="n">
-        <v>2113534.76359</v>
+        <v>2291578.8139</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>2694483.13418</v>
+        <v>2999981.28822</v>
       </c>
       <c r="J144" s="24" t="n">
         <v>3936113.95078</v>
@@ -6996,26 +7133,31 @@
         <v>5285200.49524</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>7653801.59573</v>
+        <v>7653813.6308</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>9233368.192060003</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>9235400.831630001</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>8919699.395</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
         <v>22200.59358</v>
       </c>
       <c r="D145" s="25" t="n">
-        <v>37969.12723999999</v>
+        <v>37969.12724</v>
       </c>
       <c r="E145" s="25" t="n">
-        <v>70737.25482</v>
+        <v>70737.25481999999</v>
       </c>
       <c r="F145" s="24" t="n">
         <v>54605.32827000001</v>
@@ -7027,7 +7169,7 @@
         <v>53331.23555</v>
       </c>
       <c r="I145" s="25" t="n">
-        <v>62525.62075</v>
+        <v>62525.62074999999</v>
       </c>
       <c r="J145" s="24" t="n">
         <v>132877.43081</v>
@@ -7041,12 +7183,17 @@
       <c r="M145" s="25" t="n">
         <v>175540.70718</v>
       </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+      <c r="N145" s="25" t="n">
+        <v>468415.881</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>0</v>
@@ -7081,12 +7228,17 @@
       <c r="M146" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>26937.83082</v>
@@ -7098,16 +7250,16 @@
         <v>42972.48402</v>
       </c>
       <c r="F147" s="24" t="n">
-        <v>37907.15112</v>
+        <v>37907.15111999999</v>
       </c>
       <c r="G147" s="25" t="n">
         <v>50484.04981</v>
       </c>
       <c r="H147" s="24" t="n">
-        <v>79073.31416999998</v>
+        <v>79650.52168999999</v>
       </c>
       <c r="I147" s="25" t="n">
-        <v>105375.31553</v>
+        <v>105918.35217</v>
       </c>
       <c r="J147" s="24" t="n">
         <v>97288.40790999999</v>
@@ -7121,18 +7273,23 @@
       <c r="M147" s="25" t="n">
         <v>288595.24834</v>
       </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+      <c r="N147" s="25" t="n">
+        <v>212357.578</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
         <v>8879.577719999999</v>
       </c>
       <c r="D148" s="25" t="n">
-        <v>8962.75992</v>
+        <v>8962.759920000002</v>
       </c>
       <c r="E148" s="25" t="n">
         <v>11726.35586</v>
@@ -7147,35 +7304,40 @@
         <v>16134.45971</v>
       </c>
       <c r="I148" s="25" t="n">
-        <v>22169.29789</v>
+        <v>22170.36039</v>
       </c>
       <c r="J148" s="24" t="n">
-        <v>39159.47427</v>
+        <v>39159.47427000001</v>
       </c>
       <c r="K148" s="25" t="n">
         <v>49910.86713</v>
       </c>
       <c r="L148" s="25" t="n">
-        <v>53626.79455000001</v>
+        <v>53626.79455</v>
       </c>
       <c r="M148" s="25" t="n">
-        <v>92198.15115999999</v>
-      </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+        <v>92199.65115999999</v>
+      </c>
+      <c r="N148" s="25" t="n">
+        <v>113565.324</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
-        <v>339546.3011800001</v>
+        <v>339546.30118</v>
       </c>
       <c r="D149" s="23" t="n">
         <v>238024.32527</v>
       </c>
       <c r="E149" s="23" t="n">
-        <v>496531.93563</v>
+        <v>496531.9356300001</v>
       </c>
       <c r="F149" s="33" t="n">
         <v>396547.74467</v>
@@ -7184,29 +7346,34 @@
         <v>744595.97273</v>
       </c>
       <c r="H149" s="33" t="n">
-        <v>777220.6996099999</v>
+        <v>793803.4667</v>
       </c>
       <c r="I149" s="23" t="n">
-        <v>799408.6491599998</v>
+        <v>818082.7010200002</v>
       </c>
       <c r="J149" s="33" t="n">
-        <v>1001837.89564</v>
+        <v>1001857.64671</v>
       </c>
       <c r="K149" s="23" t="n">
         <v>1374968.96685</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>1673942.47073</v>
+        <v>1674011.01502</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>1892333.13762</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>1893399.77045</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>2575281.916</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>247727.34678</v>
@@ -7224,29 +7391,34 @@
         <v>300773.72091</v>
       </c>
       <c r="H150" s="21" t="n">
-        <v>325007.08785</v>
+        <v>325007.33785</v>
       </c>
       <c r="I150" s="22" t="n">
-        <v>320670.5609500001</v>
+        <v>320670.56095</v>
       </c>
       <c r="J150" s="21" t="n">
-        <v>326054.62123</v>
+        <v>326073.65686</v>
       </c>
       <c r="K150" s="22" t="n">
-        <v>453566.3282900001</v>
+        <v>453566.32829</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>510645.75258</v>
+        <v>510697.63164</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>524411.41553</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>525452.20851</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>1170659.636</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>197.2467</v>
@@ -7281,12 +7453,17 @@
       <c r="M151" s="22" t="n">
         <v>3206.54479</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>4178.927</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>1847.92603</v>
@@ -7316,17 +7493,22 @@
         <v>45657.27234</v>
       </c>
       <c r="L152" s="22" t="n">
-        <v>37535.35478</v>
+        <v>37535.35477999999</v>
       </c>
       <c r="M152" s="22" t="n">
         <v>21794.17541</v>
       </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+      <c r="N152" s="22" t="n">
+        <v>43048.653</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>17841.64211</v>
@@ -7344,16 +7526,16 @@
         <v>268757.11122</v>
       </c>
       <c r="H153" s="21" t="n">
-        <v>234172.17241</v>
+        <v>250743.17752</v>
       </c>
       <c r="I153" s="22" t="n">
-        <v>283805.87712</v>
+        <v>302398.73697</v>
       </c>
       <c r="J153" s="21" t="n">
         <v>389649.87038</v>
       </c>
       <c r="K153" s="22" t="n">
-        <v>453262.01756</v>
+        <v>453262.0175600001</v>
       </c>
       <c r="L153" s="22" t="n">
         <v>621595.83235</v>
@@ -7361,15 +7543,20 @@
       <c r="M153" s="22" t="n">
         <v>790859.492</v>
       </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+      <c r="N153" s="22" t="n">
+        <v>565733.275</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
-        <v>71932.13955999998</v>
+        <v>71932.13956</v>
       </c>
       <c r="D154" s="22" t="n">
         <v>95862.6854</v>
@@ -7384,29 +7571,34 @@
         <v>163973.85483</v>
       </c>
       <c r="H154" s="21" t="n">
-        <v>199958.56071</v>
+        <v>199970.07269</v>
       </c>
       <c r="I154" s="22" t="n">
-        <v>172001.60692</v>
+        <v>172082.79893</v>
       </c>
       <c r="J154" s="21" t="n">
-        <v>252181.78361</v>
+        <v>252182.49905</v>
       </c>
       <c r="K154" s="22" t="n">
-        <v>421825.84278</v>
+        <v>421825.8427799999</v>
       </c>
       <c r="L154" s="22" t="n">
-        <v>500977.95504</v>
+        <v>500994.62027</v>
       </c>
       <c r="M154" s="22" t="n">
-        <v>552061.50989</v>
-      </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+        <v>552087.34974</v>
+      </c>
+      <c r="N154" s="22" t="n">
+        <v>791661.425</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,12 +7633,17 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
         <v>150399.96054</v>
@@ -7464,10 +7661,10 @@
         <v>108178.29495</v>
       </c>
       <c r="H156" s="33" t="n">
-        <v>161411.74911</v>
+        <v>254312.92927</v>
       </c>
       <c r="I156" s="23" t="n">
-        <v>188882.4702</v>
+        <v>310937.44063</v>
       </c>
       <c r="J156" s="33" t="n">
         <v>258030.13769</v>
@@ -7479,14 +7676,19 @@
         <v>626897.37481</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>1163453.19891</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>1163453.93174</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>1598974.647</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
         <v>74595.82461</v>
@@ -7504,10 +7706,10 @@
         <v>96264.09819</v>
       </c>
       <c r="H157" s="21" t="n">
-        <v>142987.84908</v>
+        <v>235889.02924</v>
       </c>
       <c r="I157" s="22" t="n">
-        <v>161492.0935</v>
+        <v>283547.0639299999</v>
       </c>
       <c r="J157" s="21" t="n">
         <v>234045.51942</v>
@@ -7519,14 +7721,19 @@
         <v>436040.67848</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>690628.7373799999</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>690629.4702100001</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>915825.688</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>75804.13592999999</v>
@@ -7559,14 +7766,19 @@
         <v>190856.69633</v>
       </c>
       <c r="M158" s="22" t="n">
-        <v>472824.46153</v>
-      </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+        <v>472824.4615299999</v>
+      </c>
+      <c r="N158" s="22" t="n">
+        <v>683148.959</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>8744.31143</v>
@@ -7601,12 +7813,17 @@
       <c r="M159" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+      <c r="N159" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>8744.31143</v>
@@ -7641,12 +7858,17 @@
       <c r="M160" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+      <c r="N160" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,18 +7903,23 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
-        <v>83061.12389</v>
+        <v>83061.12389000002</v>
       </c>
       <c r="D162" s="23" t="n">
-        <v>84379.61930000001</v>
+        <v>84379.61929999999</v>
       </c>
       <c r="E162" s="23" t="n">
         <v>131186.64996</v>
@@ -7704,32 +7931,37 @@
         <v>158985.27568</v>
       </c>
       <c r="H162" s="33" t="n">
-        <v>167404.84462</v>
+        <v>174449.81636</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>223174.01538</v>
+        <v>233147.31178</v>
       </c>
       <c r="J162" s="33" t="n">
-        <v>332566.19779</v>
+        <v>332566.8655499999</v>
       </c>
       <c r="K162" s="23" t="n">
         <v>405470.43148</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>610127.26267</v>
+        <v>610130.8668899999</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>696418.8327499999</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>696432.5219000001</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>595850.356</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
-        <v>35656.51804</v>
+        <v>35656.51803999999</v>
       </c>
       <c r="D163" s="22" t="n">
         <v>38599.7429</v>
@@ -7741,38 +7973,43 @@
         <v>32834.8864</v>
       </c>
       <c r="G163" s="22" t="n">
-        <v>78635.38596</v>
+        <v>78635.38595999999</v>
       </c>
       <c r="H163" s="21" t="n">
-        <v>77426.91969999998</v>
+        <v>80907.29973</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>90854.66854000001</v>
+        <v>95840.14402999998</v>
       </c>
       <c r="J163" s="21" t="n">
-        <v>98494.08501000001</v>
+        <v>98494.75277000001</v>
       </c>
       <c r="K163" s="22" t="n">
         <v>122236.46162</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>214490.75545</v>
+        <v>214494.35967</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>295606.61782</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>295620.30697</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>267165.014</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
         <v>31915.45212</v>
       </c>
       <c r="D164" s="22" t="n">
-        <v>38473.78709</v>
+        <v>38473.78709000001</v>
       </c>
       <c r="E164" s="22" t="n">
         <v>74077.20766999999</v>
@@ -7781,13 +8018,13 @@
         <v>46865.74586</v>
       </c>
       <c r="G164" s="22" t="n">
-        <v>57786.30703999999</v>
+        <v>57786.30704000001</v>
       </c>
       <c r="H164" s="21" t="n">
-        <v>62417.0577</v>
+        <v>65954.50714</v>
       </c>
       <c r="I164" s="22" t="n">
-        <v>84417.09586</v>
+        <v>89374.50614000001</v>
       </c>
       <c r="J164" s="21" t="n">
         <v>170852.40501</v>
@@ -7801,21 +8038,26 @@
       <c r="M164" s="22" t="n">
         <v>262776.52665</v>
       </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+      <c r="N164" s="22" t="n">
+        <v>223323.6</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
-        <v>7906.449620000001</v>
+        <v>7906.44962</v>
       </c>
       <c r="D165" s="22" t="n">
         <v>6858.512400000001</v>
       </c>
       <c r="E165" s="22" t="n">
-        <v>8060.3251</v>
+        <v>8060.325100000001</v>
       </c>
       <c r="F165" s="21" t="n">
         <v>16804.72959</v>
@@ -7833,7 +8075,7 @@
         <v>56385.48737</v>
       </c>
       <c r="K165" s="22" t="n">
-        <v>84036.50444999999</v>
+        <v>84036.50445000001</v>
       </c>
       <c r="L165" s="22" t="n">
         <v>113899.35746</v>
@@ -7841,12 +8083,17 @@
       <c r="M165" s="22" t="n">
         <v>103011.65282</v>
       </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+      <c r="N165" s="22" t="n">
+        <v>91544.077</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>7582.70411</v>
@@ -7855,7 +8102,7 @@
         <v>447.5769100000001</v>
       </c>
       <c r="E166" s="22" t="n">
-        <v>4127.72483</v>
+        <v>4127.724829999999</v>
       </c>
       <c r="F166" s="21" t="n">
         <v>1928.45655</v>
@@ -7864,72 +8111,82 @@
         <v>4837.6297</v>
       </c>
       <c r="H166" s="21" t="n">
-        <v>6078.72841</v>
+        <v>6105.870680000001</v>
       </c>
       <c r="I166" s="22" t="n">
-        <v>15808.46546</v>
+        <v>15838.87609</v>
       </c>
       <c r="J166" s="21" t="n">
-        <v>6834.220399999999</v>
+        <v>6834.2204</v>
       </c>
       <c r="K166" s="22" t="n">
         <v>9129.95587</v>
       </c>
       <c r="L166" s="22" t="n">
-        <v>9333.50412</v>
+        <v>9333.504120000001</v>
       </c>
       <c r="M166" s="22" t="n">
         <v>35024.03546</v>
       </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+      <c r="N166" s="22" t="n">
+        <v>13817.665</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
         <v>76552.78707999999</v>
       </c>
       <c r="D167" s="23" t="n">
-        <v>83623.74225999998</v>
+        <v>83623.74226</v>
       </c>
       <c r="E167" s="23" t="n">
         <v>88836.06169</v>
       </c>
       <c r="F167" s="33" t="n">
-        <v>91356.83976</v>
+        <v>91356.83975999999</v>
       </c>
       <c r="G167" s="23" t="n">
         <v>225681.41601</v>
       </c>
       <c r="H167" s="33" t="n">
-        <v>204139.65735</v>
+        <v>289777.7698300001</v>
       </c>
       <c r="I167" s="23" t="n">
-        <v>266802.29966</v>
+        <v>303092.6909599999</v>
       </c>
       <c r="J167" s="33" t="n">
-        <v>339094.4246600001</v>
+        <v>339094.42466</v>
       </c>
       <c r="K167" s="23" t="n">
         <v>369543.54001</v>
       </c>
       <c r="L167" s="23" t="n">
-        <v>691050.70518</v>
+        <v>691050.7051799999</v>
       </c>
       <c r="M167" s="23" t="n">
-        <v>845905.7356200001</v>
-      </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+        <v>847245.93626</v>
+      </c>
+      <c r="N167" s="23" t="n">
+        <v>544792.968</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
-        <v>87409.88937999999</v>
+        <v>87409.88938000001</v>
       </c>
       <c r="D168" s="22" t="n">
         <v>17556.01179</v>
@@ -7938,38 +8195,43 @@
         <v>6258.858980000001</v>
       </c>
       <c r="F168" s="21" t="n">
-        <v>25408.42591</v>
+        <v>25408.42591000001</v>
       </c>
       <c r="G168" s="22" t="n">
         <v>16440.48866</v>
       </c>
       <c r="H168" s="21" t="n">
-        <v>15194.32013</v>
+        <v>46070.11721</v>
       </c>
       <c r="I168" s="22" t="n">
-        <v>29658.7805</v>
+        <v>76534.69086</v>
       </c>
       <c r="J168" s="21" t="n">
         <v>6643.38763</v>
       </c>
       <c r="K168" s="22" t="n">
-        <v>5631.915199999999</v>
+        <v>5631.9152</v>
       </c>
       <c r="L168" s="22" t="n">
-        <v>41577.05534000001</v>
+        <v>41577.05534</v>
       </c>
       <c r="M168" s="22" t="n">
-        <v>107169.72221</v>
-      </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+        <v>108588.55665</v>
+      </c>
+      <c r="N168" s="22" t="n">
+        <v>7859.025</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
-        <v>85207.31077</v>
+        <v>85207.31077000001</v>
       </c>
       <c r="D169" s="22" t="n">
         <v>12029.30682</v>
@@ -7984,10 +8246,10 @@
         <v>13855.53831</v>
       </c>
       <c r="H169" s="21" t="n">
-        <v>9553.502789999999</v>
+        <v>40429.29987</v>
       </c>
       <c r="I169" s="22" t="n">
-        <v>8887.20744</v>
+        <v>55763.1178</v>
       </c>
       <c r="J169" s="21" t="n">
         <v>2038.5534</v>
@@ -7999,17 +8261,22 @@
         <v>39949.22868</v>
       </c>
       <c r="M169" s="22" t="n">
-        <v>101065.00075</v>
-      </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+        <v>101246.38455</v>
+      </c>
+      <c r="N169" s="22" t="n">
+        <v>5310.168</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
-        <v>33996.35862</v>
+        <v>33996.35862000001</v>
       </c>
       <c r="D170" s="22" t="n">
         <v>36609.12390999999</v>
@@ -8041,21 +8308,26 @@
       <c r="M170" s="22" t="n">
         <v>71808.03263</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>69636.94</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
-        <v>537.9478099999999</v>
+        <v>537.94781</v>
       </c>
       <c r="D171" s="22" t="n">
-        <v>622.6722500000001</v>
+        <v>622.67225</v>
       </c>
       <c r="E171" s="22" t="n">
-        <v>600.0405599999999</v>
+        <v>600.04056</v>
       </c>
       <c r="F171" s="21" t="n">
         <v>653.28354</v>
@@ -8079,14 +8351,19 @@
         <v>178.88573</v>
       </c>
       <c r="M171" s="22" t="n">
-        <v>429.74747</v>
-      </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+        <v>532.49747</v>
+      </c>
+      <c r="N171" s="22" t="n">
+        <v>155.996</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>39815.90204</v>
@@ -8104,10 +8381,10 @@
         <v>169146.14619</v>
       </c>
       <c r="H172" s="21" t="n">
-        <v>156112.90109</v>
+        <v>241751.01357</v>
       </c>
       <c r="I172" s="22" t="n">
-        <v>198432.89128</v>
+        <v>234723.28258</v>
       </c>
       <c r="J172" s="21" t="n">
         <v>285392.18102</v>
@@ -8121,12 +8398,17 @@
       <c r="M172" s="22" t="n">
         <v>767563.23406</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>472451.175</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
         <v>890853.9602199999</v>
@@ -8144,16 +8426,16 @@
         <v>3554259.3562</v>
       </c>
       <c r="H173" s="33" t="n">
-        <v>4159401.85065</v>
+        <v>4236160.804569999</v>
       </c>
       <c r="I173" s="23" t="n">
-        <v>5022214.281469999</v>
+        <v>5097517.445180001</v>
       </c>
       <c r="J173" s="33" t="n">
         <v>5376533.404420001</v>
       </c>
       <c r="K173" s="23" t="n">
-        <v>7590315.83047</v>
+        <v>7590315.830469999</v>
       </c>
       <c r="L173" s="23" t="n">
         <v>11597180.04399</v>
@@ -8161,15 +8443,20 @@
       <c r="M173" s="23" t="n">
         <v>14917867.21445</v>
       </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+      <c r="N173" s="23" t="n">
+        <v>13457918.53</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
-        <v>756290.7388299999</v>
+        <v>756290.73883</v>
       </c>
       <c r="D174" s="22" t="n">
         <v>913841.85141</v>
@@ -8184,16 +8471,16 @@
         <v>3027222.84344</v>
       </c>
       <c r="H174" s="21" t="n">
-        <v>3537377.01879</v>
+        <v>3614135.97271</v>
       </c>
       <c r="I174" s="22" t="n">
-        <v>4228256.752239999</v>
+        <v>4291242.36681</v>
       </c>
       <c r="J174" s="21" t="n">
         <v>4264379.23327</v>
       </c>
       <c r="K174" s="22" t="n">
-        <v>6114784.97193</v>
+        <v>6114784.971929999</v>
       </c>
       <c r="L174" s="22" t="n">
         <v>9494773.40316</v>
@@ -8201,12 +8488,17 @@
       <c r="M174" s="22" t="n">
         <v>11938883.70172</v>
       </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+      <c r="N174" s="22" t="n">
+        <v>9941317.898</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>134563.22139</v>
@@ -8227,7 +8519,7 @@
         <v>622024.83186</v>
       </c>
       <c r="I175" s="22" t="n">
-        <v>793957.52923</v>
+        <v>806275.07837</v>
       </c>
       <c r="J175" s="21" t="n">
         <v>1112154.17115</v>
@@ -8241,12 +8533,17 @@
       <c r="M175" s="22" t="n">
         <v>2978983.51273</v>
       </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+      <c r="N175" s="22" t="n">
+        <v>3516600.632</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>1303.14716</v>
@@ -8281,12 +8578,17 @@
       <c r="M176" s="23" t="n">
         <v>6327.340000000001</v>
       </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+      <c r="N176" s="23" t="n">
+        <v>6388.532</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>104.7605</v>
@@ -8321,12 +8623,17 @@
       <c r="M177" s="22" t="n">
         <v>24.47366</v>
       </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+      <c r="N177" s="22" t="n">
+        <v>5.043</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>0</v>
@@ -8361,12 +8668,17 @@
       <c r="M178" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+      <c r="N178" s="22" t="n">
+        <v>1.657</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>0</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>2675.88825</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>4464.71</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>1198.38666</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>3626.97809</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>1917.122</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>0</v>
@@ -8481,18 +8803,23 @@
       <c r="M181" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+      <c r="N181" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
         <v>3736561.73963</v>
       </c>
       <c r="D182" s="23" t="n">
-        <v>5662205.044759999</v>
+        <v>5662205.04476</v>
       </c>
       <c r="E182" s="23" t="n">
         <v>9901286.4268</v>
@@ -8504,10 +8831,10 @@
         <v>14260102.11781</v>
       </c>
       <c r="H182" s="33" t="n">
-        <v>16214633.03148</v>
+        <v>16585238.72752</v>
       </c>
       <c r="I182" s="23" t="n">
-        <v>23895454.68343</v>
+        <v>24838424.62184</v>
       </c>
       <c r="J182" s="33" t="n">
         <v>35477584.47354</v>
@@ -8519,14 +8846,19 @@
         <v>56036676.30526999</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>68484107.41371</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>68484109.69405</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>102839753.434</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
         <v>3291731.06287</v>
@@ -8535,7 +8867,7 @@
         <v>5151253.728159999</v>
       </c>
       <c r="E183" s="23" t="n">
-        <v>9377351.81959</v>
+        <v>9377351.819589999</v>
       </c>
       <c r="F183" s="33" t="n">
         <v>10291689.13208</v>
@@ -8544,10 +8876,10 @@
         <v>13548003.20889</v>
       </c>
       <c r="H183" s="33" t="n">
-        <v>15284239.85861</v>
+        <v>15637957.52018</v>
       </c>
       <c r="I183" s="23" t="n">
-        <v>22857377.06999</v>
+        <v>23724154.40842</v>
       </c>
       <c r="J183" s="33" t="n">
         <v>34135023.51401</v>
@@ -8561,12 +8893,17 @@
       <c r="M183" s="23" t="n">
         <v>65685040.84659</v>
       </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+      <c r="N183" s="23" t="n">
+        <v>99738542.418</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>308865.33381</v>
@@ -8587,7 +8924,7 @@
         <v>808881.93141</v>
       </c>
       <c r="I184" s="22" t="n">
-        <v>740231.2338200001</v>
+        <v>740231.23382</v>
       </c>
       <c r="J184" s="21" t="n">
         <v>1324325.53452</v>
@@ -8601,12 +8938,17 @@
       <c r="M184" s="22" t="n">
         <v>11572692.14777</v>
       </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+      <c r="N184" s="22" t="n">
+        <v>21921017.005</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>3414430.61214</v>
@@ -8624,10 +8966,10 @@
         <v>15020670.68191</v>
       </c>
       <c r="H185" s="21" t="n">
-        <v>16117820.19204</v>
+        <v>16501550.46431</v>
       </c>
       <c r="I185" s="22" t="n">
-        <v>24429364.07857</v>
+        <v>25389199.55458</v>
       </c>
       <c r="J185" s="21" t="n">
         <v>36130627.50895</v>
@@ -8636,17 +8978,22 @@
         <v>37520588.30743001</v>
       </c>
       <c r="L185" s="22" t="n">
-        <v>49980825.34204001</v>
+        <v>49980825.34204</v>
       </c>
       <c r="M185" s="22" t="n">
         <v>58013702.89108</v>
       </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+      <c r="N185" s="22" t="n">
+        <v>82701818.94599999</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>431564.88308</v>
@@ -8664,10 +9011,10 @@
         <v>2093643.96837</v>
       </c>
       <c r="H186" s="21" t="n">
-        <v>1642481.56937</v>
+        <v>1672494.18007</v>
       </c>
       <c r="I186" s="22" t="n">
-        <v>2313944.13774</v>
+        <v>2407002.27532</v>
       </c>
       <c r="J186" s="21" t="n">
         <v>3322004.32291</v>
@@ -8681,12 +9028,17 @@
       <c r="M186" s="22" t="n">
         <v>3901354.19226</v>
       </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="N186" s="22" t="n">
+        <v>4884294.188</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>0</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>0.655</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>74060.81694</v>
@@ -8861,13 +9233,13 @@
         <v>77398.22009999999</v>
       </c>
       <c r="G191" s="23" t="n">
-        <v>62884.51148</v>
+        <v>62884.51147999999</v>
       </c>
       <c r="H191" s="33" t="n">
         <v>289173.13591</v>
       </c>
       <c r="I191" s="23" t="n">
-        <v>249023.68216</v>
+        <v>298230.22765</v>
       </c>
       <c r="J191" s="33" t="n">
         <v>143669.80732</v>
@@ -8881,12 +9253,17 @@
       <c r="M191" s="23" t="n">
         <v>355535.61673</v>
       </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+      <c r="N191" s="23" t="n">
+        <v>322195.642</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>13104.41551</v>
@@ -8907,10 +9284,10 @@
         <v>73906.60896</v>
       </c>
       <c r="I192" s="22" t="n">
-        <v>16908.74587</v>
+        <v>66115.29136</v>
       </c>
       <c r="J192" s="21" t="n">
-        <v>86874.81703000001</v>
+        <v>86874.81703000002</v>
       </c>
       <c r="K192" s="22" t="n">
         <v>219652.34405</v>
@@ -8921,12 +9298,17 @@
       <c r="M192" s="22" t="n">
         <v>166128.60384</v>
       </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+      <c r="N192" s="22" t="n">
+        <v>151233.962</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>32333.47715</v>
@@ -8961,12 +9343,17 @@
       <c r="M193" s="22" t="n">
         <v>22797.90585</v>
       </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+      <c r="N193" s="22" t="n">
+        <v>8594.545</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>25689.71936</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>166542.975</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>162301.003</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>2933.20492</v>
@@ -9081,12 +9478,17 @@
       <c r="M196" s="22" t="n">
         <v>66.13203999999999</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>66.13200000000001</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
         <v>97005.12635999999</v>
@@ -9110,23 +9512,28 @@
         <v>201670.00294</v>
       </c>
       <c r="J197" s="33" t="n">
-        <v>538786.42763</v>
+        <v>538786.4276300002</v>
       </c>
       <c r="K197" s="23" t="n">
         <v>503678.27733</v>
       </c>
       <c r="L197" s="23" t="n">
-        <v>577440.8286499999</v>
+        <v>577440.8286499998</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>543380.1580000001</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>543382.4383399999</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>816749.656</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
         <v>41321.24672</v>
@@ -9147,26 +9554,31 @@
         <v>106016.69528</v>
       </c>
       <c r="I198" s="22" t="n">
-        <v>160147.6927600001</v>
+        <v>160147.69276</v>
       </c>
       <c r="J198" s="21" t="n">
-        <v>446651.13257</v>
+        <v>446651.1325700001</v>
       </c>
       <c r="K198" s="22" t="n">
-        <v>440414.9115799999</v>
+        <v>440414.91158</v>
       </c>
       <c r="L198" s="22" t="n">
         <v>505288.47163</v>
       </c>
       <c r="M198" s="22" t="n">
-        <v>464901.16967</v>
-      </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+        <v>464903.45001</v>
+      </c>
+      <c r="N198" s="22" t="n">
+        <v>693195.9080000001</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>0</v>
@@ -9241,12 +9658,17 @@
       <c r="M200" s="22" t="n">
         <v>4e-05</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>54433.02472</v>
@@ -9281,12 +9703,17 @@
       <c r="M201" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+      <c r="N201" s="22" t="n">
+        <v>958.662</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>1250.85492</v>
@@ -9353,20 +9785,25 @@
         <v>44703.83151</v>
       </c>
       <c r="K203" s="22" t="n">
-        <v>51262.41710999999</v>
+        <v>51262.41711</v>
       </c>
       <c r="L203" s="22" t="n">
-        <v>68002.35702</v>
+        <v>68002.35702000001</v>
       </c>
       <c r="M203" s="22" t="n">
-        <v>78478.98829000001</v>
-      </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+        <v>78478.98828999999</v>
+      </c>
+      <c r="N203" s="22" t="n">
+        <v>122595.086</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>17.71908</v>
@@ -9381,7 +9818,7 @@
         <v>16970.8828</v>
       </c>
       <c r="G204" s="23" t="n">
-        <v>73733.41804999999</v>
+        <v>73733.41805000001</v>
       </c>
       <c r="H204" s="33" t="n">
         <v>28787.71375</v>
@@ -9396,17 +9833,22 @@
         <v>920.3726800000001</v>
       </c>
       <c r="L204" s="23" t="n">
-        <v>844.5137699999999</v>
+        <v>844.51377</v>
       </c>
       <c r="M204" s="23" t="n">
         <v>487229.92656</v>
       </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+      <c r="N204" s="23" t="n">
+        <v>496634.055</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>17.71908</v>
@@ -9436,17 +9878,22 @@
         <v>852.9676800000001</v>
       </c>
       <c r="L205" s="22" t="n">
-        <v>844.5137699999999</v>
+        <v>844.51377</v>
       </c>
       <c r="M205" s="22" t="n">
         <v>22004.42656</v>
       </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+      <c r="N205" s="22" t="n">
+        <v>31408.555</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>0</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>465225.5</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>465225.5</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>258166.72919</v>
@@ -9495,7 +9947,7 @@
         <v>264325.31432</v>
       </c>
       <c r="E207" s="23" t="n">
-        <v>294514.6548099999</v>
+        <v>294514.65481</v>
       </c>
       <c r="F207" s="33" t="n">
         <v>329776.43567</v>
@@ -9504,13 +9956,13 @@
         <v>357474.75024</v>
       </c>
       <c r="H207" s="33" t="n">
-        <v>418932.9068</v>
+        <v>435820.9412700001</v>
       </c>
       <c r="I207" s="23" t="n">
-        <v>507777.59639</v>
+        <v>529415.48983</v>
       </c>
       <c r="J207" s="33" t="n">
-        <v>638636.8576300001</v>
+        <v>638636.85763</v>
       </c>
       <c r="K207" s="23" t="n">
         <v>765241.16073</v>
@@ -9521,12 +9973,17 @@
       <c r="M207" s="23" t="n">
         <v>1192805.49573</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>1415768.49</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>249426.13719</v>
@@ -9544,16 +10001,16 @@
         <v>357465.82801</v>
       </c>
       <c r="H208" s="21" t="n">
-        <v>418932.9068</v>
+        <v>435820.94127</v>
       </c>
       <c r="I208" s="22" t="n">
-        <v>507625.28639</v>
+        <v>529263.17983</v>
       </c>
       <c r="J208" s="21" t="n">
-        <v>638291.5102400001</v>
+        <v>638291.51024</v>
       </c>
       <c r="K208" s="22" t="n">
-        <v>764883.34444</v>
+        <v>764883.3444399999</v>
       </c>
       <c r="L208" s="22" t="n">
         <v>933361.71366</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>1192805.49573</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>1386039.448</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>8740.592000000001</v>
@@ -9601,12 +10063,17 @@
       <c r="M209" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>29729.042</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>15580.28519</v>
@@ -9621,13 +10088,13 @@
         <v>12973.97735</v>
       </c>
       <c r="G210" s="23" t="n">
-        <v>36990.88881999999</v>
+        <v>36990.88882</v>
       </c>
       <c r="H210" s="33" t="n">
         <v>14751.79685</v>
       </c>
       <c r="I210" s="23" t="n">
-        <v>71818.82073000001</v>
+        <v>77166.98178</v>
       </c>
       <c r="J210" s="33" t="n">
         <v>19395.57595</v>
@@ -9641,12 +10108,17 @@
       <c r="M210" s="23" t="n">
         <v>220115.3701</v>
       </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+      <c r="N210" s="23" t="n">
+        <v>49863.066</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>15563.63829</v>
@@ -9667,7 +10139,7 @@
         <v>10169.3842</v>
       </c>
       <c r="I211" s="22" t="n">
-        <v>24663.44539</v>
+        <v>30011.60644</v>
       </c>
       <c r="J211" s="21" t="n">
         <v>10965.95793</v>
@@ -9681,12 +10153,17 @@
       <c r="M211" s="22" t="n">
         <v>162490.24526</v>
       </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+      <c r="N211" s="22" t="n">
+        <v>19246.829</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>16.6469</v>
@@ -9704,7 +10181,7 @@
         <v>18780.68009</v>
       </c>
       <c r="H212" s="21" t="n">
-        <v>4582.412649999999</v>
+        <v>4582.41265</v>
       </c>
       <c r="I212" s="22" t="n">
         <v>47155.37534</v>
@@ -9716,17 +10193,22 @@
         <v>17657.37915</v>
       </c>
       <c r="L212" s="22" t="n">
-        <v>33776.06163999999</v>
+        <v>33776.06164</v>
       </c>
       <c r="M212" s="22" t="n">
         <v>57625.12484</v>
       </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+      <c r="N212" s="22" t="n">
+        <v>30616.237</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>0</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>0</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>0</v>
@@ -9881,12 +10378,17 @@
       <c r="M216" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>0.107</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
         <v>2396788.70505</v>
@@ -9904,29 +10406,34 @@
         <v>1542854.27954</v>
       </c>
       <c r="H217" s="33" t="n">
-        <v>2699453.17655</v>
+        <v>2927200.72345</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>2348383.49518</v>
+        <v>2983496.75917</v>
       </c>
       <c r="J217" s="33" t="n">
-        <v>-4528309.85712</v>
+        <v>-4528229.77244</v>
       </c>
       <c r="K217" s="23" t="n">
         <v>-6809287.97314</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>-14405459.80425</v>
+        <v>-14405532.01115</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>-11483799.13635</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>-11482649.31197</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>-34765029.326</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
         <v>2083530.26006</v>
@@ -9944,13 +10451,13 @@
         <v>3362071.11562</v>
       </c>
       <c r="H218" s="33" t="n">
-        <v>3576701.58216</v>
+        <v>3682714.08216</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>3802507.29881</v>
+        <v>4075836.48891</v>
       </c>
       <c r="J218" s="33" t="n">
-        <v>4523389.743020001</v>
+        <v>4523561.74303</v>
       </c>
       <c r="K218" s="23" t="n">
         <v>4588468.78267</v>
@@ -9961,12 +10468,17 @@
       <c r="M218" s="23" t="n">
         <v>4625554.086069999</v>
       </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+      <c r="N218" s="23" t="n">
+        <v>5276398.204</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>1894712.99127</v>
@@ -9984,29 +10496,34 @@
         <v>3326543.088</v>
       </c>
       <c r="H219" s="21" t="n">
-        <v>3521677.02204</v>
+        <v>3627727.02204</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>3797566.3368</v>
+        <v>4074116.3368</v>
       </c>
       <c r="J219" s="21" t="n">
-        <v>4489518.1868</v>
+        <v>4490068.18681</v>
       </c>
       <c r="K219" s="22" t="n">
-        <v>4645714.220849999</v>
+        <v>4645714.22085</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>4865059.62419</v>
+        <v>4868059.624190001</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>4635793.324979999</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>4657313.32498</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>5357179.062</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>59791.92423</v>
@@ -10021,32 +10538,37 @@
         <v>75017.81728</v>
       </c>
       <c r="G220" s="22" t="n">
-        <v>73561.20691999998</v>
+        <v>73561.20692</v>
       </c>
       <c r="H220" s="21" t="n">
-        <v>44947.92998</v>
+        <v>44985.42998</v>
       </c>
       <c r="I220" s="22" t="n">
-        <v>61800.62237</v>
+        <v>65021.86903</v>
       </c>
       <c r="J220" s="21" t="n">
-        <v>30229.8902</v>
+        <v>30607.8902</v>
       </c>
       <c r="K220" s="22" t="n">
         <v>119970.05656</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>57501.52014</v>
+        <v>60501.52014</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>63088.47945000001</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>84608.47945</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>110049.518</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>248609.19302</v>
@@ -10064,16 +10586,16 @@
         <v>109089.23454</v>
       </c>
       <c r="H221" s="21" t="n">
-        <v>99972.49009999998</v>
+        <v>99972.49010000001</v>
       </c>
       <c r="I221" s="22" t="n">
-        <v>66741.58438000001</v>
+        <v>66742.02114</v>
       </c>
       <c r="J221" s="21" t="n">
-        <v>64101.44642</v>
+        <v>64101.44641999999</v>
       </c>
       <c r="K221" s="22" t="n">
-        <v>62724.61837999999</v>
+        <v>62724.61838</v>
       </c>
       <c r="L221" s="22" t="n">
         <v>62695.03777</v>
@@ -10081,12 +10603,17 @@
       <c r="M221" s="22" t="n">
         <v>52849.24053999999</v>
       </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+      <c r="N221" s="22" t="n">
+        <v>29268.66</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>0</v>
@@ -10121,12 +10648,17 @@
       <c r="M222" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>46515.86063</v>
@@ -10135,22 +10667,22 @@
         <v>57045.81967</v>
       </c>
       <c r="E223" s="23" t="n">
-        <v>54099.89737</v>
+        <v>54099.89737000001</v>
       </c>
       <c r="F223" s="33" t="n">
         <v>65176.66931</v>
       </c>
       <c r="G223" s="23" t="n">
-        <v>719617.5123399999</v>
+        <v>719617.51234</v>
       </c>
       <c r="H223" s="33" t="n">
         <v>815263.9733499999</v>
       </c>
       <c r="I223" s="23" t="n">
-        <v>799881.3934799999</v>
+        <v>820443.1064800001</v>
       </c>
       <c r="J223" s="33" t="n">
-        <v>882672.4244199999</v>
+        <v>882761.4244200001</v>
       </c>
       <c r="K223" s="23" t="n">
         <v>1130639.34542</v>
@@ -10161,12 +10693,17 @@
       <c r="M223" s="23" t="n">
         <v>1460594.33471</v>
       </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+      <c r="N223" s="23" t="n">
+        <v>1309272.602</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>181.18516</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>642084.5027899999</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>642084.502</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>0</v>
@@ -10281,12 +10828,17 @@
       <c r="M226" s="22" t="n">
         <v>46072.45556</v>
       </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+      <c r="N226" s="22" t="n">
+        <v>46072.456</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>0.021</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>1440.021</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>1440.021</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10361,12 +10918,17 @@
       <c r="M228" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+      <c r="N228" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>46334.65447</v>
@@ -10427,32 +10994,37 @@
         <v>308309.47195</v>
       </c>
       <c r="I230" s="22" t="n">
-        <v>342570.58702</v>
+        <v>363132.30002</v>
       </c>
       <c r="J230" s="21" t="n">
-        <v>425361.61796</v>
+        <v>425450.6179600001</v>
       </c>
       <c r="K230" s="22" t="n">
         <v>573894.48924</v>
       </c>
       <c r="L230" s="22" t="n">
-        <v>910017.1657100001</v>
+        <v>910017.16571</v>
       </c>
       <c r="M230" s="22" t="n">
-        <v>770997.35536</v>
-      </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+        <v>770997.3553599999</v>
+      </c>
+      <c r="N230" s="22" t="n">
+        <v>619675.623</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
         <v>157553.82856</v>
       </c>
       <c r="D231" s="23" t="n">
-        <v>350475.2327599999</v>
+        <v>350475.23276</v>
       </c>
       <c r="E231" s="23" t="n">
         <v>317488.75266</v>
@@ -10464,13 +11036,13 @@
         <v>172080.9984</v>
       </c>
       <c r="H231" s="33" t="n">
-        <v>275063.55161</v>
+        <v>287701.52466</v>
       </c>
       <c r="I231" s="23" t="n">
-        <v>265107.10189</v>
+        <v>395788.52292</v>
       </c>
       <c r="J231" s="33" t="n">
-        <v>766986.38595</v>
+        <v>766986.3859499999</v>
       </c>
       <c r="K231" s="23" t="n">
         <v>1675211.3618</v>
@@ -10481,15 +11053,20 @@
       <c r="M231" s="23" t="n">
         <v>1166480.23902</v>
       </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+      <c r="N231" s="23" t="n">
+        <v>2690331.598</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
-        <v>65377.50466000001</v>
+        <v>65377.50466</v>
       </c>
       <c r="D232" s="22" t="n">
         <v>91436.71854</v>
@@ -10504,10 +11081,10 @@
         <v>113781.01305</v>
       </c>
       <c r="H232" s="21" t="n">
-        <v>108226.75845</v>
+        <v>113972.55943</v>
       </c>
       <c r="I232" s="22" t="n">
-        <v>113227.12657</v>
+        <v>124944.17626</v>
       </c>
       <c r="J232" s="21" t="n">
         <v>128072.09516</v>
@@ -10521,12 +11098,17 @@
       <c r="M232" s="22" t="n">
         <v>157678.65447</v>
       </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+      <c r="N232" s="22" t="n">
+        <v>178964.943</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>141.03993</v>
@@ -10541,7 +11123,7 @@
         <v>384.4664</v>
       </c>
       <c r="G233" s="22" t="n">
-        <v>417.88583</v>
+        <v>417.8858299999999</v>
       </c>
       <c r="H233" s="21" t="n">
         <v>406.66488</v>
@@ -10561,12 +11143,17 @@
       <c r="M233" s="22" t="n">
         <v>2680.15711</v>
       </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+      <c r="N233" s="22" t="n">
+        <v>2689.916</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
         <v>17681.83049</v>
@@ -10584,29 +11171,34 @@
         <v>4112.441080000001</v>
       </c>
       <c r="H234" s="21" t="n">
-        <v>3932.440309999999</v>
+        <v>10824.61238</v>
       </c>
       <c r="I234" s="22" t="n">
-        <v>16718.80375</v>
+        <v>135683.17509</v>
       </c>
       <c r="J234" s="21" t="n">
         <v>232163.80464</v>
       </c>
       <c r="K234" s="22" t="n">
-        <v>430437.23194</v>
+        <v>430437.2319400001</v>
       </c>
       <c r="L234" s="22" t="n">
         <v>116320.08549</v>
       </c>
       <c r="M234" s="22" t="n">
-        <v>704505.5598900001</v>
-      </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+        <v>704505.55989</v>
+      </c>
+      <c r="N234" s="22" t="n">
+        <v>1792344.819</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>178.76581</v>
@@ -10641,12 +11233,17 @@
       <c r="M235" s="22" t="n">
         <v>4094.57505</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>4094.575</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>74174.68767</v>
@@ -10676,20 +11273,25 @@
         <v>1099765.67168</v>
       </c>
       <c r="L236" s="22" t="n">
-        <v>756350.9699400001</v>
+        <v>756350.96994</v>
       </c>
       <c r="M236" s="22" t="n">
         <v>297521.2925</v>
       </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+      <c r="N236" s="22" t="n">
+        <v>712237.345</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
-        <v>514799.23489</v>
+        <v>514799.2348899999</v>
       </c>
       <c r="D237" s="23" t="n">
         <v>535345.04468</v>
@@ -10701,13 +11303,13 @@
         <v>319051.59104</v>
       </c>
       <c r="G237" s="23" t="n">
-        <v>359558.1940499999</v>
+        <v>359558.19405</v>
       </c>
       <c r="H237" s="33" t="n">
-        <v>314324.2010999999</v>
+        <v>314324.2011</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>1169732.56555</v>
+        <v>1191172.9218</v>
       </c>
       <c r="J237" s="33" t="n">
         <v>1517350.83867</v>
@@ -10716,20 +11318,25 @@
         <v>529788.07576</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>916408.6305000001</v>
+        <v>916408.6305</v>
       </c>
       <c r="M237" s="23" t="n">
         <v>445622.68054</v>
       </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+      <c r="N237" s="23" t="n">
+        <v>1104559.909</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
-        <v>-772102.9049499999</v>
+        <v>-772102.90495</v>
       </c>
       <c r="D238" s="23" t="n">
         <v>-855466.13856</v>
@@ -10744,29 +11351,34 @@
         <v>-1882151.67173</v>
       </c>
       <c r="H238" s="33" t="n">
-        <v>-3022787.989349999</v>
+        <v>-3022787.98935</v>
       </c>
       <c r="I238" s="23" t="n">
-        <v>-3049850.32985</v>
+        <v>-3110976.6609</v>
       </c>
       <c r="J238" s="33" t="n">
-        <v>-3896565.59767</v>
+        <v>-3896743.26337</v>
       </c>
       <c r="K238" s="23" t="n">
         <v>-11484757.02684</v>
       </c>
       <c r="L238" s="23" t="n">
-        <v>-14959812.001</v>
+        <v>-14959866.65236</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-21820504.43832</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-21825758.9426</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-21415029.072</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
         <v>366492.42586</v>
@@ -10784,29 +11396,34 @@
         <v>-1188321.86914</v>
       </c>
       <c r="H239" s="33" t="n">
-        <v>740887.8576799999</v>
+        <v>849984.9315299999</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>-638994.5347000001</v>
+        <v>-388767.62004</v>
       </c>
       <c r="J239" s="33" t="n">
-        <v>-8322143.65151</v>
+        <v>-8322146.901140001</v>
       </c>
       <c r="K239" s="23" t="n">
         <v>-3248638.51195</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>-8054617.761069999</v>
+        <v>-8054635.31661</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>2638453.96163</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>2644858.29029</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>-23730562.567</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
         <v>526869.50662</v>
@@ -10821,38 +11438,43 @@
         <v>1348805.87842</v>
       </c>
       <c r="G240" s="22" t="n">
-        <v>272722.3887</v>
+        <v>272722.3887000001</v>
       </c>
       <c r="H240" s="21" t="n">
-        <v>1113924.03761</v>
+        <v>1231894.77368</v>
       </c>
       <c r="I240" s="22" t="n">
-        <v>277163.8874400001</v>
+        <v>540588.1129299999</v>
       </c>
       <c r="J240" s="21" t="n">
         <v>107065.08808</v>
       </c>
       <c r="K240" s="22" t="n">
-        <v>458523.6509899999</v>
+        <v>458523.65099</v>
       </c>
       <c r="L240" s="22" t="n">
         <v>595852.82906</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>3222292.18255</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>3227577.19155</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>95683.891</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
         <v>160377.08076</v>
       </c>
       <c r="D241" s="22" t="n">
-        <v>478195.5489400001</v>
+        <v>478195.54894</v>
       </c>
       <c r="E241" s="22" t="n">
         <v>1788298.40905</v>
@@ -10864,32 +11486,37 @@
         <v>1461044.25784</v>
       </c>
       <c r="H241" s="21" t="n">
-        <v>373036.17993</v>
+        <v>381909.84215</v>
       </c>
       <c r="I241" s="22" t="n">
-        <v>916158.42214</v>
+        <v>929355.73297</v>
       </c>
       <c r="J241" s="21" t="n">
-        <v>8429208.73959</v>
+        <v>8429211.989220001</v>
       </c>
       <c r="K241" s="22" t="n">
         <v>3707162.162940001</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>8650470.590130001</v>
+        <v>8650488.14567</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>583838.2209200001</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>582718.90126</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>23826246.458</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
-        <v>9171818.874470001</v>
+        <v>9171818.874469999</v>
       </c>
       <c r="D242" s="47" t="n">
         <v>11487378.70605</v>
@@ -10898,32 +11525,35 @@
         <v>15867197.67607</v>
       </c>
       <c r="F242" s="48" t="n">
-        <v>18989337.16136999</v>
+        <v>18989337.16137</v>
       </c>
       <c r="G242" s="47" t="n">
         <v>24795231.41131</v>
       </c>
       <c r="H242" s="48" t="n">
-        <v>28562578.54213</v>
+        <v>29622321.05997</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>39453103.34423</v>
+        <v>41617254.03128999</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>52307666.57878</v>
+        <v>52307767.08228999</v>
       </c>
       <c r="K242" s="47" t="n">
         <v>55569897.57894</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>80277415.02192999</v>
+        <v>80277426.99861</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>106762061.62412</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>106767677.14718</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>135510238.659</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>115</v>
@@ -10960,26 +11593,29 @@
         <v>185</v>
       </c>
       <c r="H244" s="53" t="n">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="I244" s="52" t="n">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="J244" s="53" t="n">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="K244" s="52" t="n">
         <v>207</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>251</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>274</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>315</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>